--- a/downloads/mainpharmacyinventory.xlsx
+++ b/downloads/mainpharmacyinventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malachi.egbugha\Documents\project\hmsbackend\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC048454-E5CD-4171-9785-95D87EAB5490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED17F8BF-D8A4-498E-9CC1-612D470B2F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E597F3E0-C64E-419C-BCB0-AD8BE7755CA4}"/>
   </bookViews>
@@ -2011,7 +2011,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2024,7 +2024,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2361,10 +2360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8681CA4-D105-4AE6-9BEC-EF5B3BEE5B68}">
-  <dimension ref="A1:J501"/>
+  <dimension ref="A1:H501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2374,13 +2373,12 @@
     <col min="3" max="3" width="17.81640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="26.7265625" style="8" customWidth="1"/>
     <col min="5" max="5" width="32.453125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875"/>
-    <col min="7" max="7" width="9.1796875" style="5"/>
+    <col min="6" max="7" width="9.1796875"/>
     <col min="8" max="8" width="19.54296875" style="7" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2406,7 +2404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>528</v>
       </c>
@@ -2425,17 +2423,14 @@
       <c r="F2" s="4">
         <v>10000</v>
       </c>
-      <c r="G2" s="5">
-        <v>200.01</v>
+      <c r="G2">
+        <v>200</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="J2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>430</v>
       </c>
@@ -2454,17 +2449,14 @@
       <c r="F3" s="4">
         <v>10000</v>
       </c>
-      <c r="G3" s="10">
-        <v>1000.01</v>
+      <c r="G3">
+        <v>1000</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="J3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>433</v>
       </c>
@@ -2483,17 +2475,14 @@
       <c r="F4" s="4">
         <v>10000</v>
       </c>
-      <c r="G4" s="5">
-        <v>150.01</v>
+      <c r="G4">
+        <v>150</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="J4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>433</v>
       </c>
@@ -2512,17 +2501,14 @@
       <c r="F5" s="4">
         <v>10000</v>
       </c>
-      <c r="G5" s="5">
-        <v>4.01</v>
+      <c r="G5">
+        <v>4</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="J5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>529</v>
       </c>
@@ -2541,17 +2527,14 @@
       <c r="F6" s="4">
         <v>10000</v>
       </c>
-      <c r="G6" s="5">
-        <v>120.01</v>
+      <c r="G6">
+        <v>120</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="J6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>433</v>
       </c>
@@ -2570,17 +2553,14 @@
       <c r="F7" s="4">
         <v>10000</v>
       </c>
-      <c r="G7" s="5">
-        <v>940.01</v>
+      <c r="G7">
+        <v>940</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="J7">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>433</v>
       </c>
@@ -2599,17 +2579,14 @@
       <c r="F8" s="4">
         <v>10000</v>
       </c>
-      <c r="G8" s="5">
-        <v>30.01</v>
+      <c r="G8">
+        <v>30</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="J8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>433</v>
       </c>
@@ -2628,17 +2605,14 @@
       <c r="F9" s="4">
         <v>10000</v>
       </c>
-      <c r="G9" s="5">
-        <v>50.01</v>
+      <c r="G9">
+        <v>50</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>433</v>
       </c>
@@ -2657,17 +2631,14 @@
       <c r="F10" s="4">
         <v>10000</v>
       </c>
-      <c r="G10" s="5">
-        <v>630.01</v>
+      <c r="G10">
+        <v>630</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="J10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>438</v>
       </c>
@@ -2686,17 +2657,14 @@
       <c r="F11" s="4">
         <v>10000</v>
       </c>
-      <c r="G11" s="5">
-        <v>960.01</v>
+      <c r="G11">
+        <v>960</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="J11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>438</v>
       </c>
@@ -2715,17 +2683,14 @@
       <c r="F12" s="4">
         <v>10000</v>
       </c>
-      <c r="G12" s="5">
-        <v>0.01</v>
+      <c r="G12">
+        <v>0</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="J12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>433</v>
       </c>
@@ -2744,17 +2709,14 @@
       <c r="F13" s="4">
         <v>10000</v>
       </c>
-      <c r="G13" s="10">
-        <v>3030.01</v>
+      <c r="G13">
+        <v>3030</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="J13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>433</v>
       </c>
@@ -2773,17 +2735,14 @@
       <c r="F14" s="4">
         <v>10000</v>
       </c>
-      <c r="G14" s="10">
-        <v>1210.01</v>
+      <c r="G14">
+        <v>1210</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="J14">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>530</v>
       </c>
@@ -2802,17 +2761,14 @@
       <c r="F15" s="4">
         <v>10000</v>
       </c>
-      <c r="G15" s="5">
-        <v>900.01</v>
+      <c r="G15">
+        <v>900</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="J15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>529</v>
       </c>
@@ -2831,17 +2787,14 @@
       <c r="F16" s="4">
         <v>10000</v>
       </c>
-      <c r="G16" s="5">
-        <v>680.01</v>
+      <c r="G16">
+        <v>680</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="J16">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>531</v>
       </c>
@@ -2860,17 +2813,14 @@
       <c r="F17" s="4">
         <v>10000</v>
       </c>
-      <c r="G17" s="10">
-        <v>17370.009999999998</v>
+      <c r="G17">
+        <v>17370</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="J17">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>532</v>
       </c>
@@ -2889,17 +2839,14 @@
       <c r="F18" s="4">
         <v>10000</v>
       </c>
-      <c r="G18" s="5">
-        <v>980.01</v>
+      <c r="G18">
+        <v>980</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="J18">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>430</v>
       </c>
@@ -2918,17 +2865,14 @@
       <c r="F19" s="4">
         <v>10000</v>
       </c>
-      <c r="G19" s="10">
-        <v>1100.01</v>
+      <c r="G19">
+        <v>1100</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="J19">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>433</v>
       </c>
@@ -2947,17 +2891,14 @@
       <c r="F20" s="4">
         <v>10000</v>
       </c>
-      <c r="G20" s="5">
-        <v>6.01</v>
+      <c r="G20">
+        <v>6</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="J20">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>433</v>
       </c>
@@ -2976,17 +2917,14 @@
       <c r="F21" s="4">
         <v>10000</v>
       </c>
-      <c r="G21" s="5">
-        <v>600.01</v>
+      <c r="G21">
+        <v>600</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="J21">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>529</v>
       </c>
@@ -3005,17 +2943,14 @@
       <c r="F22" s="4">
         <v>10000</v>
       </c>
-      <c r="G22" s="10">
-        <v>91840.01</v>
+      <c r="G22">
+        <v>91840</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J22">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>529</v>
       </c>
@@ -3034,17 +2969,14 @@
       <c r="F23" s="4">
         <v>10000</v>
       </c>
-      <c r="G23" s="10">
-        <v>2000.01</v>
+      <c r="G23">
+        <v>2000</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="J23">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>433</v>
       </c>
@@ -3063,17 +2995,14 @@
       <c r="F24" s="4">
         <v>10000</v>
       </c>
-      <c r="G24" s="5">
-        <v>3.01</v>
+      <c r="G24">
+        <v>3</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="J24">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>533</v>
       </c>
@@ -3092,17 +3021,14 @@
       <c r="F25" s="4">
         <v>10000</v>
       </c>
-      <c r="G25" s="5">
-        <v>380.01</v>
+      <c r="G25">
+        <v>380</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="J25">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>534</v>
       </c>
@@ -3121,17 +3047,14 @@
       <c r="F26" s="4">
         <v>10000</v>
       </c>
-      <c r="G26" s="10">
-        <v>1070.01</v>
+      <c r="G26">
+        <v>1070</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="J26">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>529</v>
       </c>
@@ -3150,17 +3073,14 @@
       <c r="F27" s="4">
         <v>10000</v>
       </c>
-      <c r="G27" s="5">
-        <v>80.010000000000005</v>
+      <c r="G27">
+        <v>80</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="J27">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>532</v>
       </c>
@@ -3179,17 +3099,14 @@
       <c r="F28" s="4">
         <v>10000</v>
       </c>
-      <c r="G28" s="10">
-        <v>1850.01</v>
+      <c r="G28">
+        <v>1850</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="J28">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>433</v>
       </c>
@@ -3208,17 +3125,14 @@
       <c r="F29" s="4">
         <v>10000</v>
       </c>
-      <c r="G29" s="5">
-        <v>660.01</v>
+      <c r="G29">
+        <v>660</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="J29">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>439</v>
       </c>
@@ -3237,17 +3151,14 @@
       <c r="F30" s="4">
         <v>10000</v>
       </c>
-      <c r="G30" s="5">
-        <v>570.01</v>
+      <c r="G30">
+        <v>570</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="J30">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>529</v>
       </c>
@@ -3266,17 +3177,14 @@
       <c r="F31" s="4">
         <v>10000</v>
       </c>
-      <c r="G31" s="5">
-        <v>900.01</v>
+      <c r="G31">
+        <v>900</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>530</v>
       </c>
@@ -3295,17 +3203,14 @@
       <c r="F32" s="4">
         <v>10000</v>
       </c>
-      <c r="G32" s="5">
-        <v>40.01</v>
+      <c r="G32">
+        <v>40</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="J32">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>438</v>
       </c>
@@ -3324,17 +3229,14 @@
       <c r="F33" s="4">
         <v>10000</v>
       </c>
-      <c r="G33" s="5">
-        <v>560.01</v>
+      <c r="G33">
+        <v>560</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="J33">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>535</v>
       </c>
@@ -3353,17 +3255,14 @@
       <c r="F34" s="4">
         <v>10000</v>
       </c>
-      <c r="G34" s="5">
-        <v>660.01</v>
+      <c r="G34">
+        <v>660</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="J34">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>535</v>
       </c>
@@ -3382,17 +3281,14 @@
       <c r="F35" s="4">
         <v>10000</v>
       </c>
-      <c r="G35" s="5">
-        <v>840.01</v>
+      <c r="G35">
+        <v>840</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="J35">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>439</v>
       </c>
@@ -3411,17 +3307,14 @@
       <c r="F36" s="4">
         <v>10000</v>
       </c>
-      <c r="G36" s="5">
-        <v>100.01</v>
+      <c r="G36">
+        <v>100</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="J36">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>528</v>
       </c>
@@ -3440,17 +3333,14 @@
       <c r="F37" s="4">
         <v>10000</v>
       </c>
-      <c r="G37" s="5">
-        <v>490.01</v>
+      <c r="G37">
+        <v>490</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="J37">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>528</v>
       </c>
@@ -3469,17 +3359,14 @@
       <c r="F38" s="4">
         <v>10000</v>
       </c>
-      <c r="G38" s="5">
-        <v>200.01</v>
+      <c r="G38">
+        <v>200</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="J38">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>528</v>
       </c>
@@ -3498,17 +3385,14 @@
       <c r="F39" s="4">
         <v>10000</v>
       </c>
-      <c r="G39" s="5">
-        <v>380.01</v>
+      <c r="G39">
+        <v>380</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="J39">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>533</v>
       </c>
@@ -3527,17 +3411,14 @@
       <c r="F40" s="4">
         <v>10000</v>
       </c>
-      <c r="G40" s="5">
-        <v>50.01</v>
+      <c r="G40">
+        <v>50</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="J40">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>433</v>
       </c>
@@ -3556,17 +3437,14 @@
       <c r="F41" s="4">
         <v>10000</v>
       </c>
-      <c r="G41" s="5">
-        <v>340.01</v>
+      <c r="G41">
+        <v>340</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="J41">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>431</v>
       </c>
@@ -3585,17 +3463,14 @@
       <c r="F42" s="4">
         <v>10000</v>
       </c>
-      <c r="G42" s="5">
-        <v>40.01</v>
+      <c r="G42">
+        <v>40</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="J42">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>433</v>
       </c>
@@ -3614,17 +3489,14 @@
       <c r="F43" s="4">
         <v>10000</v>
       </c>
-      <c r="G43" s="5">
-        <v>850.01</v>
+      <c r="G43">
+        <v>850</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="J43">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>432</v>
       </c>
@@ -3643,17 +3515,14 @@
       <c r="F44" s="4">
         <v>10000</v>
       </c>
-      <c r="G44" s="5">
-        <v>340.01</v>
+      <c r="G44">
+        <v>340</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="J44">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>429</v>
       </c>
@@ -3672,17 +3541,14 @@
       <c r="F45" s="4">
         <v>10000</v>
       </c>
-      <c r="G45" s="5">
-        <v>5.01</v>
+      <c r="G45">
+        <v>5</v>
       </c>
       <c r="H45" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="J45">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>437</v>
       </c>
@@ -3701,17 +3567,14 @@
       <c r="F46" s="4">
         <v>10000</v>
       </c>
-      <c r="G46" s="10">
-        <v>1110.01</v>
+      <c r="G46">
+        <v>1110</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="J46">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>529</v>
       </c>
@@ -3730,17 +3593,14 @@
       <c r="F47" s="4">
         <v>10000</v>
       </c>
-      <c r="G47" s="10">
-        <v>1240.01</v>
+      <c r="G47">
+        <v>1240</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="J47">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>529</v>
       </c>
@@ -3759,17 +3619,14 @@
       <c r="F48" s="4">
         <v>10000</v>
       </c>
-      <c r="G48" s="5">
-        <v>960.01</v>
+      <c r="G48">
+        <v>960</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="J48">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>536</v>
       </c>
@@ -3788,17 +3645,14 @@
       <c r="F49" s="4">
         <v>10000</v>
       </c>
-      <c r="G49" s="5">
-        <v>880.01</v>
+      <c r="G49">
+        <v>880</v>
       </c>
       <c r="H49" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="J49">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>534</v>
       </c>
@@ -3817,17 +3671,14 @@
       <c r="F50" s="4">
         <v>10000</v>
       </c>
-      <c r="G50" s="10">
-        <v>1500.01</v>
+      <c r="G50">
+        <v>1500</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="J50">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>438</v>
       </c>
@@ -3846,17 +3697,14 @@
       <c r="F51" s="4">
         <v>10000</v>
       </c>
-      <c r="G51" s="5">
-        <v>850.01</v>
+      <c r="G51">
+        <v>850</v>
       </c>
       <c r="H51" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="J51">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>438</v>
       </c>
@@ -3875,17 +3723,14 @@
       <c r="F52" s="4">
         <v>10000</v>
       </c>
-      <c r="G52" s="5">
-        <v>560.01</v>
+      <c r="G52">
+        <v>560</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="J52">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>528</v>
       </c>
@@ -3904,17 +3749,14 @@
       <c r="F53" s="4">
         <v>10000</v>
       </c>
-      <c r="G53" s="5">
-        <v>80.010000000000005</v>
+      <c r="G53">
+        <v>80</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="J53">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>536</v>
       </c>
@@ -3933,17 +3775,14 @@
       <c r="F54" s="4">
         <v>10000</v>
       </c>
-      <c r="G54" s="5">
-        <v>300.01</v>
+      <c r="G54">
+        <v>300</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="J54">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>437</v>
       </c>
@@ -3962,17 +3801,14 @@
       <c r="F55" s="4">
         <v>10000</v>
       </c>
-      <c r="G55" s="5">
-        <v>160.01</v>
+      <c r="G55">
+        <v>160</v>
       </c>
       <c r="H55" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="J55">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>530</v>
       </c>
@@ -3991,17 +3827,14 @@
       <c r="F56" s="4">
         <v>10000</v>
       </c>
-      <c r="G56" s="5">
-        <v>680.01</v>
+      <c r="G56">
+        <v>680</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="J56">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>530</v>
       </c>
@@ -4020,17 +3853,14 @@
       <c r="F57" s="4">
         <v>10000</v>
       </c>
-      <c r="G57" s="5">
-        <v>680.01</v>
+      <c r="G57">
+        <v>680</v>
       </c>
       <c r="H57" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="J57">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>537</v>
       </c>
@@ -4049,17 +3879,14 @@
       <c r="F58" s="4">
         <v>10000</v>
       </c>
-      <c r="G58" s="5">
-        <v>340.01</v>
+      <c r="G58">
+        <v>340</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="J58">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>439</v>
       </c>
@@ -4078,17 +3905,14 @@
       <c r="F59" s="4">
         <v>10000</v>
       </c>
-      <c r="G59" s="5">
-        <v>90.01</v>
+      <c r="G59">
+        <v>90</v>
       </c>
       <c r="H59" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="J59">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>439</v>
       </c>
@@ -4107,17 +3931,14 @@
       <c r="F60" s="4">
         <v>10000</v>
       </c>
-      <c r="G60" s="5">
-        <v>660.01</v>
+      <c r="G60">
+        <v>660</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="J60">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>439</v>
       </c>
@@ -4136,17 +3957,14 @@
       <c r="F61" s="4">
         <v>10000</v>
       </c>
-      <c r="G61" s="5">
-        <v>230.01</v>
+      <c r="G61">
+        <v>230</v>
       </c>
       <c r="H61" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="J61">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>439</v>
       </c>
@@ -4165,17 +3983,14 @@
       <c r="F62" s="4">
         <v>10000</v>
       </c>
-      <c r="G62" s="5">
-        <v>230.01</v>
+      <c r="G62">
+        <v>230</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="J62">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>538</v>
       </c>
@@ -4194,17 +4009,14 @@
       <c r="F63" s="4">
         <v>10000</v>
       </c>
-      <c r="G63" s="5">
-        <v>70.010000000000005</v>
+      <c r="G63">
+        <v>70</v>
       </c>
       <c r="H63" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="J63">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>539</v>
       </c>
@@ -4223,17 +4035,14 @@
       <c r="F64" s="4">
         <v>10000</v>
       </c>
-      <c r="G64" s="5">
-        <v>200.01</v>
+      <c r="G64">
+        <v>200</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="J64">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>534</v>
       </c>
@@ -4252,17 +4061,14 @@
       <c r="F65" s="4">
         <v>10000</v>
       </c>
-      <c r="G65" s="5">
-        <v>10.01</v>
+      <c r="G65">
+        <v>10</v>
       </c>
       <c r="H65" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="J65">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>534</v>
       </c>
@@ -4281,17 +4087,14 @@
       <c r="F66" s="4">
         <v>10000</v>
       </c>
-      <c r="G66" s="10">
-        <v>2080.0100000000002</v>
+      <c r="G66">
+        <v>2080</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="J66">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>534</v>
       </c>
@@ -4310,17 +4113,14 @@
       <c r="F67" s="4">
         <v>10000</v>
       </c>
-      <c r="G67" s="5">
-        <v>910.01</v>
+      <c r="G67">
+        <v>910</v>
       </c>
       <c r="H67" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="J67">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>534</v>
       </c>
@@ -4339,17 +4139,14 @@
       <c r="F68" s="4">
         <v>10000</v>
       </c>
-      <c r="G68" s="5">
-        <v>470.01</v>
+      <c r="G68">
+        <v>470</v>
       </c>
       <c r="H68" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="J68">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>540</v>
       </c>
@@ -4368,17 +4165,14 @@
       <c r="F69" s="4">
         <v>10000</v>
       </c>
-      <c r="G69" s="5">
-        <v>170.01</v>
+      <c r="G69">
+        <v>170</v>
       </c>
       <c r="H69" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="J69">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>540</v>
       </c>
@@ -4397,17 +4191,14 @@
       <c r="F70" s="4">
         <v>10000</v>
       </c>
-      <c r="G70" s="5">
-        <v>160.01</v>
+      <c r="G70">
+        <v>160</v>
       </c>
       <c r="H70" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="J70">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>540</v>
       </c>
@@ -4426,17 +4217,14 @@
       <c r="F71" s="4">
         <v>10000</v>
       </c>
-      <c r="G71" s="5">
-        <v>140.01</v>
+      <c r="G71">
+        <v>140</v>
       </c>
       <c r="H71" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="J71">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>540</v>
       </c>
@@ -4455,17 +4243,14 @@
       <c r="F72" s="4">
         <v>10000</v>
       </c>
-      <c r="G72" s="5">
-        <v>140.01</v>
+      <c r="G72">
+        <v>140</v>
       </c>
       <c r="H72" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="J72">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>431</v>
       </c>
@@ -4484,17 +4269,14 @@
       <c r="F73" s="4">
         <v>10000</v>
       </c>
-      <c r="G73" s="5">
-        <v>40.01</v>
+      <c r="G73">
+        <v>40</v>
       </c>
       <c r="H73" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="J73">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>431</v>
       </c>
@@ -4513,17 +4295,14 @@
       <c r="F74" s="4">
         <v>10000</v>
       </c>
-      <c r="G74" s="5">
-        <v>350.01</v>
+      <c r="G74">
+        <v>350</v>
       </c>
       <c r="H74" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="J74">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>431</v>
       </c>
@@ -4542,17 +4321,14 @@
       <c r="F75" s="4">
         <v>10000</v>
       </c>
-      <c r="G75" s="5">
-        <v>70.010000000000005</v>
+      <c r="G75">
+        <v>70</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="J75">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>431</v>
       </c>
@@ -4571,17 +4347,14 @@
       <c r="F76" s="4">
         <v>10000</v>
       </c>
-      <c r="G76" s="5">
-        <v>110.01</v>
+      <c r="G76">
+        <v>110</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="J76">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>534</v>
       </c>
@@ -4600,17 +4373,14 @@
       <c r="F77" s="4">
         <v>10000</v>
       </c>
-      <c r="G77" s="5">
-        <v>450.01</v>
+      <c r="G77">
+        <v>450</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="J77">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>534</v>
       </c>
@@ -4629,17 +4399,14 @@
       <c r="F78" s="4">
         <v>10000</v>
       </c>
-      <c r="G78" s="5">
-        <v>650.01</v>
+      <c r="G78">
+        <v>650</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="J78">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>534</v>
       </c>
@@ -4658,17 +4425,14 @@
       <c r="F79" s="4">
         <v>10000</v>
       </c>
-      <c r="G79" s="5">
-        <v>170.01</v>
+      <c r="G79">
+        <v>170</v>
       </c>
       <c r="H79" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="J79">
-        <v>39000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>534</v>
       </c>
@@ -4687,17 +4451,14 @@
       <c r="F80" s="4">
         <v>10000</v>
       </c>
-      <c r="G80" s="5">
-        <v>80.010000000000005</v>
+      <c r="G80">
+        <v>80</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="J80">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>534</v>
       </c>
@@ -4716,17 +4477,14 @@
       <c r="F81" s="4">
         <v>10000</v>
       </c>
-      <c r="G81" s="10">
-        <v>8170.01</v>
+      <c r="G81">
+        <v>8170</v>
       </c>
       <c r="H81" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="J81">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>534</v>
       </c>
@@ -4745,17 +4503,14 @@
       <c r="F82" s="4">
         <v>10000</v>
       </c>
-      <c r="G82" s="10">
-        <v>1600.01</v>
+      <c r="G82">
+        <v>1600</v>
       </c>
       <c r="H82" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="J82">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>541</v>
       </c>
@@ -4774,17 +4529,14 @@
       <c r="F83" s="4">
         <v>10000</v>
       </c>
-      <c r="G83" s="5">
-        <v>230.01</v>
+      <c r="G83">
+        <v>230</v>
       </c>
       <c r="H83" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="J83">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>541</v>
       </c>
@@ -4803,17 +4555,14 @@
       <c r="F84" s="4">
         <v>10000</v>
       </c>
-      <c r="G84" s="5">
-        <v>420.01</v>
+      <c r="G84">
+        <v>420</v>
       </c>
       <c r="H84" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="J84">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>541</v>
       </c>
@@ -4832,17 +4581,14 @@
       <c r="F85" s="4">
         <v>10000</v>
       </c>
-      <c r="G85" s="5">
-        <v>230.01</v>
+      <c r="G85">
+        <v>230</v>
       </c>
       <c r="H85" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="J85">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>541</v>
       </c>
@@ -4861,17 +4607,14 @@
       <c r="F86" s="4">
         <v>10000</v>
       </c>
-      <c r="G86" s="5">
-        <v>230.01</v>
+      <c r="G86">
+        <v>230</v>
       </c>
       <c r="H86" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="J86">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>541</v>
       </c>
@@ -4890,17 +4633,14 @@
       <c r="F87" s="4">
         <v>10000</v>
       </c>
-      <c r="G87" s="5">
-        <v>230.01</v>
+      <c r="G87">
+        <v>230</v>
       </c>
       <c r="H87" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="J87">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>429</v>
       </c>
@@ -4919,17 +4659,14 @@
       <c r="F88" s="4">
         <v>10000</v>
       </c>
-      <c r="G88" s="5">
-        <v>800.01</v>
+      <c r="G88">
+        <v>800</v>
       </c>
       <c r="H88" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="J88">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>429</v>
       </c>
@@ -4948,17 +4685,14 @@
       <c r="F89" s="4">
         <v>10000</v>
       </c>
-      <c r="G89" s="5">
-        <v>800.01</v>
+      <c r="G89">
+        <v>800</v>
       </c>
       <c r="H89" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="J89">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>429</v>
       </c>
@@ -4977,17 +4711,14 @@
       <c r="F90" s="4">
         <v>10000</v>
       </c>
-      <c r="G90" s="5">
-        <v>910.01</v>
+      <c r="G90">
+        <v>910</v>
       </c>
       <c r="H90" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="J90">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>429</v>
       </c>
@@ -5006,17 +4737,14 @@
       <c r="F91" s="4">
         <v>10000</v>
       </c>
-      <c r="G91" s="5">
-        <v>800.01</v>
+      <c r="G91">
+        <v>800</v>
       </c>
       <c r="H91" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="J91">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>429</v>
       </c>
@@ -5035,17 +4763,14 @@
       <c r="F92" s="4">
         <v>10000</v>
       </c>
-      <c r="G92" s="5">
-        <v>800.01</v>
+      <c r="G92">
+        <v>800</v>
       </c>
       <c r="H92" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="J92">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>534</v>
       </c>
@@ -5064,17 +4789,14 @@
       <c r="F93" s="4">
         <v>10000</v>
       </c>
-      <c r="G93" s="5">
-        <v>200.01</v>
+      <c r="G93">
+        <v>200</v>
       </c>
       <c r="H93" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="J93">
-        <v>14500</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>534</v>
       </c>
@@ -5093,17 +4815,14 @@
       <c r="F94" s="4">
         <v>10000</v>
       </c>
-      <c r="G94" s="5">
-        <v>200.01</v>
+      <c r="G94">
+        <v>200</v>
       </c>
       <c r="H94" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="J94">
-        <v>27500</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>534</v>
       </c>
@@ -5122,17 +4841,14 @@
       <c r="F95" s="4">
         <v>10000</v>
       </c>
-      <c r="G95" s="5">
-        <v>220.01</v>
+      <c r="G95">
+        <v>220</v>
       </c>
       <c r="H95" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="J95">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>534</v>
       </c>
@@ -5151,17 +4867,14 @@
       <c r="F96" s="4">
         <v>10000</v>
       </c>
-      <c r="G96" s="5">
-        <v>200.01</v>
+      <c r="G96">
+        <v>200</v>
       </c>
       <c r="H96" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="J96">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>534</v>
       </c>
@@ -5180,17 +4893,14 @@
       <c r="F97" s="4">
         <v>10000</v>
       </c>
-      <c r="G97" s="5">
-        <v>200.01</v>
+      <c r="G97">
+        <v>200</v>
       </c>
       <c r="H97" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="J97">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>534</v>
       </c>
@@ -5209,17 +4919,14 @@
       <c r="F98" s="4">
         <v>10000</v>
       </c>
-      <c r="G98" s="5">
-        <v>30.01</v>
+      <c r="G98">
+        <v>30</v>
       </c>
       <c r="H98" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="J98">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>542</v>
       </c>
@@ -5238,17 +4945,14 @@
       <c r="F99" s="4">
         <v>10000</v>
       </c>
-      <c r="G99" s="5">
-        <v>850.01</v>
+      <c r="G99">
+        <v>850</v>
       </c>
       <c r="H99" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="J99">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>542</v>
       </c>
@@ -5267,17 +4971,14 @@
       <c r="F100" s="4">
         <v>10000</v>
       </c>
-      <c r="G100" s="5">
-        <v>640.01</v>
+      <c r="G100">
+        <v>640</v>
       </c>
       <c r="H100" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="J100">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>534</v>
       </c>
@@ -5296,17 +4997,14 @@
       <c r="F101" s="4">
         <v>10000</v>
       </c>
-      <c r="G101" s="5">
-        <v>650.01</v>
+      <c r="G101">
+        <v>650</v>
       </c>
       <c r="H101" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="J101">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>542</v>
       </c>
@@ -5325,17 +5023,14 @@
       <c r="F102" s="4">
         <v>10000</v>
       </c>
-      <c r="G102" s="5">
-        <v>120.01</v>
+      <c r="G102">
+        <v>120</v>
       </c>
       <c r="H102" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="J102">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>542</v>
       </c>
@@ -5354,17 +5049,14 @@
       <c r="F103" s="4">
         <v>10000</v>
       </c>
-      <c r="G103" s="10">
-        <v>1800.01</v>
+      <c r="G103">
+        <v>1800</v>
       </c>
       <c r="H103" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="J103">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>542</v>
       </c>
@@ -5383,17 +5075,14 @@
       <c r="F104" s="4">
         <v>10000</v>
       </c>
-      <c r="G104" s="5">
-        <v>210.01</v>
+      <c r="G104">
+        <v>210</v>
       </c>
       <c r="H104" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="J104">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>543</v>
       </c>
@@ -5412,17 +5101,14 @@
       <c r="F105" s="4">
         <v>10000</v>
       </c>
-      <c r="G105" s="5">
-        <v>200.01</v>
+      <c r="G105">
+        <v>200</v>
       </c>
       <c r="H105" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="J105">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>531</v>
       </c>
@@ -5441,17 +5127,14 @@
       <c r="F106" s="4">
         <v>10000</v>
       </c>
-      <c r="G106" s="5">
-        <v>300.01</v>
+      <c r="G106">
+        <v>300</v>
       </c>
       <c r="H106" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="J106">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>543</v>
       </c>
@@ -5470,17 +5153,14 @@
       <c r="F107" s="4">
         <v>10000</v>
       </c>
-      <c r="G107" s="10">
-        <v>1290.01</v>
+      <c r="G107">
+        <v>1290</v>
       </c>
       <c r="H107" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="J107">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>435</v>
       </c>
@@ -5499,17 +5179,14 @@
       <c r="F108" s="4">
         <v>10000</v>
       </c>
-      <c r="G108" s="5">
-        <v>560.01</v>
+      <c r="G108">
+        <v>560</v>
       </c>
       <c r="H108" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="J108">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>435</v>
       </c>
@@ -5528,17 +5205,14 @@
       <c r="F109" s="4">
         <v>10000</v>
       </c>
-      <c r="G109" s="5">
-        <v>580.01</v>
+      <c r="G109">
+        <v>580</v>
       </c>
       <c r="H109" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="J109">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>435</v>
       </c>
@@ -5557,17 +5231,14 @@
       <c r="F110" s="4">
         <v>10000</v>
       </c>
-      <c r="G110" s="5">
-        <v>740.01</v>
+      <c r="G110">
+        <v>740</v>
       </c>
       <c r="H110" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="J110">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>435</v>
       </c>
@@ -5586,17 +5257,14 @@
       <c r="F111" s="4">
         <v>10000</v>
       </c>
-      <c r="G111" s="10">
-        <v>1190.01</v>
+      <c r="G111">
+        <v>1190</v>
       </c>
       <c r="H111" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="J111">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>432</v>
       </c>
@@ -5615,17 +5283,14 @@
       <c r="F112" s="4">
         <v>10000</v>
       </c>
-      <c r="G112" s="5">
-        <v>550.01</v>
+      <c r="G112">
+        <v>550</v>
       </c>
       <c r="H112" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="J112">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>437</v>
       </c>
@@ -5644,17 +5309,14 @@
       <c r="F113" s="4">
         <v>10000</v>
       </c>
-      <c r="G113" s="5">
-        <v>550.01</v>
+      <c r="G113">
+        <v>550</v>
       </c>
       <c r="H113" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="J113">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>432</v>
       </c>
@@ -5673,17 +5335,14 @@
       <c r="F114" s="4">
         <v>10000</v>
       </c>
-      <c r="G114" s="5">
-        <v>480.01</v>
+      <c r="G114">
+        <v>480</v>
       </c>
       <c r="H114" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="J114">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>432</v>
       </c>
@@ -5702,17 +5361,14 @@
       <c r="F115" s="4">
         <v>10000</v>
       </c>
-      <c r="G115" s="5">
-        <v>480.01</v>
+      <c r="G115">
+        <v>480</v>
       </c>
       <c r="H115" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="J115">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>432</v>
       </c>
@@ -5731,17 +5387,14 @@
       <c r="F116" s="4">
         <v>10000</v>
       </c>
-      <c r="G116" s="5">
-        <v>340.01</v>
+      <c r="G116">
+        <v>340</v>
       </c>
       <c r="H116" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="J116">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>432</v>
       </c>
@@ -5760,17 +5413,14 @@
       <c r="F117" s="4">
         <v>10000</v>
       </c>
-      <c r="G117" s="5">
-        <v>550.01</v>
+      <c r="G117">
+        <v>550</v>
       </c>
       <c r="H117" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="J117">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>535</v>
       </c>
@@ -5789,17 +5439,14 @@
       <c r="F118" s="4">
         <v>10000</v>
       </c>
-      <c r="G118" s="5">
-        <v>550.01</v>
+      <c r="G118">
+        <v>550</v>
       </c>
       <c r="H118" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="J118">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>432</v>
       </c>
@@ -5818,17 +5465,14 @@
       <c r="F119" s="4">
         <v>10000</v>
       </c>
-      <c r="G119" s="5">
-        <v>550.01</v>
+      <c r="G119">
+        <v>550</v>
       </c>
       <c r="H119" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="J119">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>432</v>
       </c>
@@ -5847,17 +5491,14 @@
       <c r="F120" s="4">
         <v>10000</v>
       </c>
-      <c r="G120" s="5">
-        <v>550.01</v>
+      <c r="G120">
+        <v>550</v>
       </c>
       <c r="H120" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="J120">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>440</v>
       </c>
@@ -5876,17 +5517,14 @@
       <c r="F121" s="4">
         <v>10000</v>
       </c>
-      <c r="G121" s="5">
-        <v>370.01</v>
+      <c r="G121">
+        <v>370</v>
       </c>
       <c r="H121" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="J121">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>440</v>
       </c>
@@ -5905,17 +5543,14 @@
       <c r="F122" s="4">
         <v>10000</v>
       </c>
-      <c r="G122" s="5">
-        <v>340.01</v>
+      <c r="G122">
+        <v>340</v>
       </c>
       <c r="H122" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="J122">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>436</v>
       </c>
@@ -5934,17 +5569,14 @@
       <c r="F123" s="4">
         <v>10000</v>
       </c>
-      <c r="G123" s="5">
-        <v>130.01</v>
+      <c r="G123">
+        <v>130</v>
       </c>
       <c r="H123" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="J123">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>436</v>
       </c>
@@ -5963,17 +5595,14 @@
       <c r="F124" s="4">
         <v>10000</v>
       </c>
-      <c r="G124" s="10">
-        <v>1520.01</v>
+      <c r="G124">
+        <v>1520</v>
       </c>
       <c r="H124" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="J124">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>436</v>
       </c>
@@ -5992,17 +5621,14 @@
       <c r="F125" s="4">
         <v>10000</v>
       </c>
-      <c r="G125" s="10">
-        <v>2250.0100000000002</v>
+      <c r="G125">
+        <v>2250</v>
       </c>
       <c r="H125" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="J125">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>436</v>
       </c>
@@ -6021,17 +5647,14 @@
       <c r="F126" s="4">
         <v>10000</v>
       </c>
-      <c r="G126" s="5">
-        <v>320.01</v>
+      <c r="G126">
+        <v>320</v>
       </c>
       <c r="H126" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="J126">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>436</v>
       </c>
@@ -6050,17 +5673,14 @@
       <c r="F127" s="4">
         <v>10000</v>
       </c>
-      <c r="G127" s="10">
-        <v>5870.01</v>
+      <c r="G127">
+        <v>5870</v>
       </c>
       <c r="H127" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="J127">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>436</v>
       </c>
@@ -6079,17 +5699,14 @@
       <c r="F128" s="4">
         <v>10000</v>
       </c>
-      <c r="G128" s="5">
-        <v>50.01</v>
+      <c r="G128">
+        <v>50</v>
       </c>
       <c r="H128" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="J128">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>436</v>
       </c>
@@ -6108,17 +5725,14 @@
       <c r="F129" s="4">
         <v>10000</v>
       </c>
-      <c r="G129" s="5">
-        <v>50.01</v>
+      <c r="G129">
+        <v>50</v>
       </c>
       <c r="H129" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="J129">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
         <v>436</v>
       </c>
@@ -6137,17 +5751,14 @@
       <c r="F130" s="4">
         <v>10000</v>
       </c>
-      <c r="G130" s="5">
-        <v>50.01</v>
+      <c r="G130">
+        <v>50</v>
       </c>
       <c r="H130" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="J130">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>436</v>
       </c>
@@ -6166,17 +5777,14 @@
       <c r="F131" s="4">
         <v>10000</v>
       </c>
-      <c r="G131" s="5">
-        <v>640.01</v>
+      <c r="G131">
+        <v>640</v>
       </c>
       <c r="H131" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="J131">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>436</v>
       </c>
@@ -6195,17 +5803,14 @@
       <c r="F132" s="4">
         <v>10000</v>
       </c>
-      <c r="G132" s="5">
-        <v>70.010000000000005</v>
+      <c r="G132">
+        <v>70</v>
       </c>
       <c r="H132" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="J132">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>436</v>
       </c>
@@ -6224,17 +5829,14 @@
       <c r="F133" s="4">
         <v>10000</v>
       </c>
-      <c r="G133" s="5">
-        <v>890.01</v>
+      <c r="G133">
+        <v>890</v>
       </c>
       <c r="H133" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="J133">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>436</v>
       </c>
@@ -6253,17 +5855,14 @@
       <c r="F134" s="4">
         <v>10000</v>
       </c>
-      <c r="G134" s="5">
-        <v>890.01</v>
+      <c r="G134">
+        <v>890</v>
       </c>
       <c r="H134" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="J134">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>436</v>
       </c>
@@ -6282,17 +5881,14 @@
       <c r="F135" s="4">
         <v>10000</v>
       </c>
-      <c r="G135" s="5">
-        <v>880.01</v>
+      <c r="G135">
+        <v>880</v>
       </c>
       <c r="H135" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="J135">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>436</v>
       </c>
@@ -6311,17 +5907,14 @@
       <c r="F136" s="4">
         <v>10000</v>
       </c>
-      <c r="G136" s="5">
-        <v>90.01</v>
+      <c r="G136">
+        <v>90</v>
       </c>
       <c r="H136" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="J136">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>436</v>
       </c>
@@ -6340,17 +5933,14 @@
       <c r="F137" s="4">
         <v>10000</v>
       </c>
-      <c r="G137" s="5">
-        <v>450.01</v>
+      <c r="G137">
+        <v>450</v>
       </c>
       <c r="H137" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="J137">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>436</v>
       </c>
@@ -6369,17 +5959,14 @@
       <c r="F138" s="4">
         <v>10000</v>
       </c>
-      <c r="G138" s="5">
-        <v>190.01</v>
+      <c r="G138">
+        <v>190</v>
       </c>
       <c r="H138" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="J138">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>436</v>
       </c>
@@ -6398,17 +5985,14 @@
       <c r="F139" s="4">
         <v>10000</v>
       </c>
-      <c r="G139" s="5">
-        <v>70.010000000000005</v>
+      <c r="G139">
+        <v>70</v>
       </c>
       <c r="H139" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="J139">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>436</v>
       </c>
@@ -6427,17 +6011,14 @@
       <c r="F140" s="4">
         <v>10000</v>
       </c>
-      <c r="G140" s="5">
-        <v>80.010000000000005</v>
+      <c r="G140">
+        <v>80</v>
       </c>
       <c r="H140" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="J140">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>436</v>
       </c>
@@ -6456,17 +6037,14 @@
       <c r="F141" s="4">
         <v>10000</v>
       </c>
-      <c r="G141" s="5">
-        <v>330.01</v>
+      <c r="G141">
+        <v>330</v>
       </c>
       <c r="H141" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="J141">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
         <v>436</v>
       </c>
@@ -6485,17 +6063,14 @@
       <c r="F142" s="4">
         <v>10000</v>
       </c>
-      <c r="G142" s="5">
-        <v>50.01</v>
+      <c r="G142">
+        <v>50</v>
       </c>
       <c r="H142" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="J142">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>436</v>
       </c>
@@ -6514,17 +6089,14 @@
       <c r="F143" s="4">
         <v>10000</v>
       </c>
-      <c r="G143" s="10">
-        <v>1400.01</v>
+      <c r="G143">
+        <v>1400</v>
       </c>
       <c r="H143" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="J143">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>436</v>
       </c>
@@ -6543,17 +6115,14 @@
       <c r="F144" s="4">
         <v>10000</v>
       </c>
-      <c r="G144" s="5">
-        <v>170.01</v>
+      <c r="G144">
+        <v>170</v>
       </c>
       <c r="H144" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="J144">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>436</v>
       </c>
@@ -6572,17 +6141,14 @@
       <c r="F145" s="4">
         <v>10000</v>
       </c>
-      <c r="G145" s="5">
-        <v>60.01</v>
+      <c r="G145">
+        <v>60</v>
       </c>
       <c r="H145" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="J145">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
         <v>436</v>
       </c>
@@ -6601,17 +6167,14 @@
       <c r="F146" s="4">
         <v>10000</v>
       </c>
-      <c r="G146" s="5">
-        <v>150.01</v>
+      <c r="G146">
+        <v>150</v>
       </c>
       <c r="H146" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="J146">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>436</v>
       </c>
@@ -6630,17 +6193,14 @@
       <c r="F147" s="4">
         <v>10000</v>
       </c>
-      <c r="G147" s="10">
-        <v>1410.01</v>
+      <c r="G147">
+        <v>1410</v>
       </c>
       <c r="H147" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="J147">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>438</v>
       </c>
@@ -6659,17 +6219,14 @@
       <c r="F148" s="4">
         <v>10000</v>
       </c>
-      <c r="G148" s="5">
-        <v>270.01</v>
+      <c r="G148">
+        <v>270</v>
       </c>
       <c r="H148" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="J148">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>438</v>
       </c>
@@ -6688,17 +6245,14 @@
       <c r="F149" s="4">
         <v>10000</v>
       </c>
-      <c r="G149" s="5">
-        <v>320.01</v>
+      <c r="G149">
+        <v>320</v>
       </c>
       <c r="H149" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="J149">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
         <v>438</v>
       </c>
@@ -6717,17 +6271,14 @@
       <c r="F150" s="4">
         <v>10000</v>
       </c>
-      <c r="G150" s="5">
-        <v>530.01</v>
+      <c r="G150">
+        <v>530</v>
       </c>
       <c r="H150" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="J150">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>434</v>
       </c>
@@ -6746,17 +6297,14 @@
       <c r="F151" s="4">
         <v>10000</v>
       </c>
-      <c r="G151" s="5">
-        <v>720.01</v>
+      <c r="G151">
+        <v>720</v>
       </c>
       <c r="H151" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="J151">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>434</v>
       </c>
@@ -6775,17 +6323,14 @@
       <c r="F152" s="4">
         <v>10000</v>
       </c>
-      <c r="G152" s="5">
-        <v>410.01</v>
+      <c r="G152">
+        <v>410</v>
       </c>
       <c r="H152" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="J152">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
         <v>434</v>
       </c>
@@ -6804,17 +6349,14 @@
       <c r="F153" s="4">
         <v>10000</v>
       </c>
-      <c r="G153" s="5">
-        <v>370.01</v>
+      <c r="G153">
+        <v>370</v>
       </c>
       <c r="H153" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J153">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
         <v>434</v>
       </c>
@@ -6833,17 +6375,14 @@
       <c r="F154" s="4">
         <v>10000</v>
       </c>
-      <c r="G154" s="5">
-        <v>280.01</v>
+      <c r="G154">
+        <v>280</v>
       </c>
       <c r="H154" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="J154">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>434</v>
       </c>
@@ -6862,17 +6401,14 @@
       <c r="F155" s="4">
         <v>10000</v>
       </c>
-      <c r="G155" s="5">
-        <v>370.01</v>
+      <c r="G155">
+        <v>370</v>
       </c>
       <c r="H155" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="J155">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="156" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>434</v>
       </c>
@@ -6891,17 +6427,14 @@
       <c r="F156" s="4">
         <v>10000</v>
       </c>
-      <c r="G156" s="5">
-        <v>370.01</v>
+      <c r="G156">
+        <v>370</v>
       </c>
       <c r="H156" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="J156">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
         <v>434</v>
       </c>
@@ -6920,17 +6453,14 @@
       <c r="F157" s="4">
         <v>10000</v>
       </c>
-      <c r="G157" s="5">
-        <v>400.01</v>
+      <c r="G157">
+        <v>400</v>
       </c>
       <c r="H157" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="J157">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
         <v>434</v>
       </c>
@@ -6949,17 +6479,14 @@
       <c r="F158" s="4">
         <v>10000</v>
       </c>
-      <c r="G158" s="5">
-        <v>740.01</v>
+      <c r="G158">
+        <v>740</v>
       </c>
       <c r="H158" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="J158">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="159" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
         <v>434</v>
       </c>
@@ -6978,17 +6505,14 @@
       <c r="F159" s="4">
         <v>10000</v>
       </c>
-      <c r="G159" s="5">
-        <v>710.01</v>
+      <c r="G159">
+        <v>710</v>
       </c>
       <c r="H159" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="J159">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
         <v>434</v>
       </c>
@@ -7007,17 +6531,14 @@
       <c r="F160" s="4">
         <v>10000</v>
       </c>
-      <c r="G160" s="5">
-        <v>770.01</v>
+      <c r="G160">
+        <v>770</v>
       </c>
       <c r="H160" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="J160">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
         <v>434</v>
       </c>
@@ -7036,17 +6557,14 @@
       <c r="F161" s="4">
         <v>10000</v>
       </c>
-      <c r="G161" s="5">
-        <v>680.01</v>
+      <c r="G161">
+        <v>680</v>
       </c>
       <c r="H161" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="J161">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
         <v>434</v>
       </c>
@@ -7065,17 +6583,14 @@
       <c r="F162" s="4">
         <v>10000</v>
       </c>
-      <c r="G162" s="5">
-        <v>260.01</v>
+      <c r="G162">
+        <v>260</v>
       </c>
       <c r="H162" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="J162">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
         <v>430</v>
       </c>
@@ -7094,17 +6609,14 @@
       <c r="F163" s="4">
         <v>10000</v>
       </c>
-      <c r="G163" s="5">
-        <v>440.01</v>
+      <c r="G163">
+        <v>440</v>
       </c>
       <c r="H163" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="J163">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="164" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
         <v>430</v>
       </c>
@@ -7123,17 +6635,14 @@
       <c r="F164" s="4">
         <v>10000</v>
       </c>
-      <c r="G164" s="5">
-        <v>790.01</v>
+      <c r="G164">
+        <v>790</v>
       </c>
       <c r="H164" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="J164">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
         <v>430</v>
       </c>
@@ -7152,17 +6661,14 @@
       <c r="F165" s="4">
         <v>10000</v>
       </c>
-      <c r="G165" s="10">
-        <v>1400.01</v>
+      <c r="G165">
+        <v>1400</v>
       </c>
       <c r="H165" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="J165">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
         <v>430</v>
       </c>
@@ -7181,17 +6687,14 @@
       <c r="F166" s="4">
         <v>10000</v>
       </c>
-      <c r="G166" s="5">
-        <v>560.01</v>
+      <c r="G166">
+        <v>560</v>
       </c>
       <c r="H166" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="J166">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
         <v>430</v>
       </c>
@@ -7210,17 +6713,14 @@
       <c r="F167" s="4">
         <v>10000</v>
       </c>
-      <c r="G167" s="5">
-        <v>410.01</v>
+      <c r="G167">
+        <v>410</v>
       </c>
       <c r="H167" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="J167">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
         <v>430</v>
       </c>
@@ -7239,17 +6739,14 @@
       <c r="F168" s="4">
         <v>10000</v>
       </c>
-      <c r="G168" s="5">
-        <v>550.01</v>
+      <c r="G168">
+        <v>550</v>
       </c>
       <c r="H168" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="J168">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
         <v>430</v>
       </c>
@@ -7268,17 +6765,14 @@
       <c r="F169" s="4">
         <v>10000</v>
       </c>
-      <c r="G169" s="10">
-        <v>1910.01</v>
+      <c r="G169">
+        <v>1910</v>
       </c>
       <c r="H169" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="J169">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
         <v>430</v>
       </c>
@@ -7297,17 +6791,14 @@
       <c r="F170" s="4">
         <v>10000</v>
       </c>
-      <c r="G170" s="10">
-        <v>1540.01</v>
+      <c r="G170">
+        <v>1540</v>
       </c>
       <c r="H170" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="J170">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="171" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
         <v>430</v>
       </c>
@@ -7326,17 +6817,14 @@
       <c r="F171" s="4">
         <v>10000</v>
       </c>
-      <c r="G171" s="10">
-        <v>1760.01</v>
+      <c r="G171">
+        <v>1760</v>
       </c>
       <c r="H171" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="J171">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="172" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
         <v>430</v>
       </c>
@@ -7355,17 +6843,14 @@
       <c r="F172" s="4">
         <v>10000</v>
       </c>
-      <c r="G172" s="10">
-        <v>1570.01</v>
+      <c r="G172">
+        <v>1570</v>
       </c>
       <c r="H172" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="J172">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
         <v>528</v>
       </c>
@@ -7384,17 +6869,14 @@
       <c r="F173" s="4">
         <v>10000</v>
       </c>
-      <c r="G173" s="10">
-        <v>1120.01</v>
+      <c r="G173">
+        <v>1120</v>
       </c>
       <c r="H173" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="J173">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
         <v>532</v>
       </c>
@@ -7413,17 +6895,14 @@
       <c r="F174" s="4">
         <v>10000</v>
       </c>
-      <c r="G174" s="10">
-        <v>1680.01</v>
+      <c r="G174">
+        <v>1680</v>
       </c>
       <c r="H174" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="J174">
-        <v>17400</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
         <v>532</v>
       </c>
@@ -7442,17 +6921,14 @@
       <c r="F175" s="4">
         <v>10000</v>
       </c>
-      <c r="G175" s="5">
-        <v>790.01</v>
+      <c r="G175">
+        <v>790</v>
       </c>
       <c r="H175" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="J175">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
         <v>532</v>
       </c>
@@ -7471,17 +6947,14 @@
       <c r="F176" s="4">
         <v>10000</v>
       </c>
-      <c r="G176" s="5">
-        <v>550.01</v>
+      <c r="G176">
+        <v>550</v>
       </c>
       <c r="H176" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="J176">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
         <v>532</v>
       </c>
@@ -7500,17 +6973,14 @@
       <c r="F177" s="4">
         <v>10000</v>
       </c>
-      <c r="G177" s="5">
-        <v>210.01</v>
+      <c r="G177">
+        <v>210</v>
       </c>
       <c r="H177" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="J177">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
         <v>532</v>
       </c>
@@ -7529,17 +6999,14 @@
       <c r="F178" s="4">
         <v>10000</v>
       </c>
-      <c r="G178" s="5">
-        <v>100.01</v>
+      <c r="G178">
+        <v>100</v>
       </c>
       <c r="H178" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="J178">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
         <v>532</v>
       </c>
@@ -7558,17 +7025,14 @@
       <c r="F179" s="4">
         <v>10000</v>
       </c>
-      <c r="G179" s="5">
-        <v>680.01</v>
+      <c r="G179">
+        <v>680</v>
       </c>
       <c r="H179" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="J179">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
         <v>532</v>
       </c>
@@ -7587,17 +7051,14 @@
       <c r="F180" s="4">
         <v>10000</v>
       </c>
-      <c r="G180" s="5">
-        <v>810.01</v>
+      <c r="G180">
+        <v>810</v>
       </c>
       <c r="H180" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="J180">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
         <v>532</v>
       </c>
@@ -7616,17 +7077,14 @@
       <c r="F181" s="4">
         <v>10000</v>
       </c>
-      <c r="G181" s="5">
-        <v>480.01</v>
+      <c r="G181">
+        <v>480</v>
       </c>
       <c r="H181" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="J181">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="182" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
         <v>532</v>
       </c>
@@ -7645,17 +7103,14 @@
       <c r="F182" s="4">
         <v>10000</v>
       </c>
-      <c r="G182" s="5">
-        <v>470.01</v>
+      <c r="G182">
+        <v>470</v>
       </c>
       <c r="H182" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="J182">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="183" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
         <v>532</v>
       </c>
@@ -7674,17 +7129,14 @@
       <c r="F183" s="4">
         <v>10000</v>
       </c>
-      <c r="G183" s="5">
-        <v>530.01</v>
+      <c r="G183">
+        <v>530</v>
       </c>
       <c r="H183" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="J183">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
         <v>532</v>
       </c>
@@ -7703,17 +7155,14 @@
       <c r="F184" s="4">
         <v>10000</v>
       </c>
-      <c r="G184" s="5">
-        <v>260.01</v>
+      <c r="G184">
+        <v>260</v>
       </c>
       <c r="H184" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="J184">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="185" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
         <v>532</v>
       </c>
@@ -7732,17 +7181,14 @@
       <c r="F185" s="4">
         <v>10000</v>
       </c>
-      <c r="G185" s="5">
-        <v>370.01</v>
+      <c r="G185">
+        <v>370</v>
       </c>
       <c r="H185" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="J185">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
         <v>532</v>
       </c>
@@ -7761,17 +7207,14 @@
       <c r="F186" s="4">
         <v>10000</v>
       </c>
-      <c r="G186" s="10">
-        <v>1340.01</v>
+      <c r="G186">
+        <v>1340</v>
       </c>
       <c r="H186" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="J186">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="187" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
         <v>433</v>
       </c>
@@ -7790,17 +7233,14 @@
       <c r="F187" s="4">
         <v>10000</v>
       </c>
-      <c r="G187" s="5">
-        <v>750.01</v>
+      <c r="G187">
+        <v>750</v>
       </c>
       <c r="H187" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="J187">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="188" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
         <v>433</v>
       </c>
@@ -7819,17 +7259,14 @@
       <c r="F188" s="4">
         <v>10000</v>
       </c>
-      <c r="G188" s="5">
-        <v>30.01</v>
+      <c r="G188">
+        <v>30</v>
       </c>
       <c r="H188" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="J188">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="189" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
         <v>433</v>
       </c>
@@ -7848,17 +7285,14 @@
       <c r="F189" s="4">
         <v>10000</v>
       </c>
-      <c r="G189" s="5">
-        <v>70.010000000000005</v>
+      <c r="G189">
+        <v>70</v>
       </c>
       <c r="H189" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="J189">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="190" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
         <v>433</v>
       </c>
@@ -7877,17 +7311,14 @@
       <c r="F190" s="4">
         <v>10000</v>
       </c>
-      <c r="G190" s="5">
-        <v>10.01</v>
+      <c r="G190">
+        <v>10</v>
       </c>
       <c r="H190" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="J190">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="191" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
         <v>433</v>
       </c>
@@ -7906,17 +7337,14 @@
       <c r="F191" s="4">
         <v>10000</v>
       </c>
-      <c r="G191" s="5">
-        <v>3.01</v>
+      <c r="G191">
+        <v>3</v>
       </c>
       <c r="H191" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="J191">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="192" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A192" s="5" t="s">
         <v>433</v>
       </c>
@@ -7935,17 +7363,14 @@
       <c r="F192" s="4">
         <v>10000</v>
       </c>
-      <c r="G192" s="10">
-        <v>1310.01</v>
+      <c r="G192">
+        <v>1310</v>
       </c>
       <c r="H192" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="J192">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="193" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
         <v>433</v>
       </c>
@@ -7964,17 +7389,14 @@
       <c r="F193" s="4">
         <v>10000</v>
       </c>
-      <c r="G193" s="5">
-        <v>80.010000000000005</v>
+      <c r="G193">
+        <v>80</v>
       </c>
       <c r="H193" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="J193">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="194" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A194" s="5" t="s">
         <v>433</v>
       </c>
@@ -7993,17 +7415,14 @@
       <c r="F194" s="4">
         <v>10000</v>
       </c>
-      <c r="G194" s="5">
-        <v>20.010000000000002</v>
+      <c r="G194">
+        <v>20</v>
       </c>
       <c r="H194" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="J194">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="195" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A195" s="5" t="s">
         <v>433</v>
       </c>
@@ -8022,17 +7441,14 @@
       <c r="F195" s="4">
         <v>10000</v>
       </c>
-      <c r="G195" s="5">
-        <v>110.01</v>
+      <c r="G195">
+        <v>110</v>
       </c>
       <c r="H195" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="J195">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="196" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A196" s="5" t="s">
         <v>433</v>
       </c>
@@ -8051,17 +7467,14 @@
       <c r="F196" s="4">
         <v>10000</v>
       </c>
-      <c r="G196" s="5">
-        <v>100.01</v>
+      <c r="G196">
+        <v>100</v>
       </c>
       <c r="H196" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="J196">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="197" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A197" s="5" t="s">
         <v>433</v>
       </c>
@@ -8080,17 +7493,14 @@
       <c r="F197" s="4">
         <v>10000</v>
       </c>
-      <c r="G197" s="5">
-        <v>60.01</v>
+      <c r="G197">
+        <v>60</v>
       </c>
       <c r="H197" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="J197">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="198" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A198" s="5" t="s">
         <v>433</v>
       </c>
@@ -8109,17 +7519,14 @@
       <c r="F198" s="4">
         <v>10000</v>
       </c>
-      <c r="G198" s="5">
-        <v>710.01</v>
+      <c r="G198">
+        <v>710</v>
       </c>
       <c r="H198" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="J198">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="199" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
         <v>433</v>
       </c>
@@ -8138,17 +7545,14 @@
       <c r="F199" s="4">
         <v>10000</v>
       </c>
-      <c r="G199" s="5">
-        <v>610.01</v>
+      <c r="G199">
+        <v>610</v>
       </c>
       <c r="H199" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="J199">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="200" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A200" s="5" t="s">
         <v>433</v>
       </c>
@@ -8167,17 +7571,14 @@
       <c r="F200" s="4">
         <v>10000</v>
       </c>
-      <c r="G200" s="5">
-        <v>730.01</v>
+      <c r="G200">
+        <v>730</v>
       </c>
       <c r="H200" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="J200">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="201" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A201" s="5" t="s">
         <v>433</v>
       </c>
@@ -8196,17 +7597,14 @@
       <c r="F201" s="4">
         <v>10000</v>
       </c>
-      <c r="G201" s="5">
-        <v>880.01</v>
+      <c r="G201">
+        <v>880</v>
       </c>
       <c r="H201" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="J201">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="202" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A202" s="5" t="s">
         <v>433</v>
       </c>
@@ -8225,17 +7623,14 @@
       <c r="F202" s="4">
         <v>10000</v>
       </c>
-      <c r="G202" s="5">
-        <v>440.01</v>
+      <c r="G202">
+        <v>440</v>
       </c>
       <c r="H202" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="J202">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="203" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
         <v>433</v>
       </c>
@@ -8254,17 +7649,14 @@
       <c r="F203" s="4">
         <v>10000</v>
       </c>
-      <c r="G203" s="5">
-        <v>250.01</v>
+      <c r="G203">
+        <v>250</v>
       </c>
       <c r="H203" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="J203">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="204" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A204" s="5" t="s">
         <v>433</v>
       </c>
@@ -8283,17 +7675,14 @@
       <c r="F204" s="4">
         <v>10000</v>
       </c>
-      <c r="G204" s="5">
-        <v>100.01</v>
+      <c r="G204">
+        <v>100</v>
       </c>
       <c r="H204" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="J204">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="205" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
         <v>433</v>
       </c>
@@ -8312,17 +7701,14 @@
       <c r="F205" s="4">
         <v>10000</v>
       </c>
-      <c r="G205" s="5">
-        <v>140.01</v>
+      <c r="G205">
+        <v>140</v>
       </c>
       <c r="H205" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="J205">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="206" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
         <v>433</v>
       </c>
@@ -8341,17 +7727,14 @@
       <c r="F206" s="4">
         <v>10000</v>
       </c>
-      <c r="G206" s="5">
-        <v>470.01</v>
+      <c r="G206">
+        <v>470</v>
       </c>
       <c r="H206" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="J206">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="207" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
         <v>433</v>
       </c>
@@ -8370,17 +7753,14 @@
       <c r="F207" s="4">
         <v>10000</v>
       </c>
-      <c r="G207" s="10">
-        <v>1490.01</v>
+      <c r="G207">
+        <v>1490</v>
       </c>
       <c r="H207" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="J207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="208" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A208" s="5" t="s">
         <v>433</v>
       </c>
@@ -8399,17 +7779,14 @@
       <c r="F208" s="4">
         <v>10000</v>
       </c>
-      <c r="G208" s="10">
-        <v>1230.01</v>
+      <c r="G208">
+        <v>1230</v>
       </c>
       <c r="H208" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="J208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="209" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A209" s="5" t="s">
         <v>433</v>
       </c>
@@ -8428,17 +7805,14 @@
       <c r="F209" s="4">
         <v>10000</v>
       </c>
-      <c r="G209" s="10">
-        <v>1520.01</v>
+      <c r="G209">
+        <v>1520</v>
       </c>
       <c r="H209" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="J209">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="210" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A210" s="5" t="s">
         <v>433</v>
       </c>
@@ -8457,17 +7831,14 @@
       <c r="F210" s="4">
         <v>10000</v>
       </c>
-      <c r="G210" s="10">
-        <v>1010.01</v>
+      <c r="G210">
+        <v>1010</v>
       </c>
       <c r="H210" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="J210">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="211" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="s">
         <v>433</v>
       </c>
@@ -8486,17 +7857,14 @@
       <c r="F211" s="4">
         <v>10000</v>
       </c>
-      <c r="G211" s="5">
-        <v>890.01</v>
+      <c r="G211">
+        <v>890</v>
       </c>
       <c r="H211" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="J211">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="212" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A212" s="5" t="s">
         <v>433</v>
       </c>
@@ -8515,17 +7883,14 @@
       <c r="F212" s="4">
         <v>10000</v>
       </c>
-      <c r="G212" s="5">
-        <v>810.01</v>
+      <c r="G212">
+        <v>810</v>
       </c>
       <c r="H212" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="J212">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="213" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A213" s="5" t="s">
         <v>433</v>
       </c>
@@ -8544,17 +7909,14 @@
       <c r="F213" s="4">
         <v>10000</v>
       </c>
-      <c r="G213" s="5">
-        <v>490.01</v>
+      <c r="G213">
+        <v>490</v>
       </c>
       <c r="H213" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="J213">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="214" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A214" s="5" t="s">
         <v>433</v>
       </c>
@@ -8573,17 +7935,14 @@
       <c r="F214" s="4">
         <v>10000</v>
       </c>
-      <c r="G214" s="5">
-        <v>130.01</v>
+      <c r="G214">
+        <v>130</v>
       </c>
       <c r="H214" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="J214">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="215" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
         <v>433</v>
       </c>
@@ -8602,17 +7961,14 @@
       <c r="F215" s="4">
         <v>10000</v>
       </c>
-      <c r="G215" s="5">
-        <v>240.01</v>
+      <c r="G215">
+        <v>240</v>
       </c>
       <c r="H215" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="J215">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="216" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A216" s="5" t="s">
         <v>433</v>
       </c>
@@ -8631,17 +7987,14 @@
       <c r="F216" s="4">
         <v>10000</v>
       </c>
-      <c r="G216" s="10">
-        <v>1610.01</v>
+      <c r="G216">
+        <v>1610</v>
       </c>
       <c r="H216" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="J216">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="217" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A217" s="5" t="s">
         <v>433</v>
       </c>
@@ -8660,17 +8013,14 @@
       <c r="F217" s="4">
         <v>10000</v>
       </c>
-      <c r="G217" s="5">
-        <v>940.01</v>
+      <c r="G217">
+        <v>940</v>
       </c>
       <c r="H217" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="J217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="218" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A218" s="5" t="s">
         <v>433</v>
       </c>
@@ -8689,17 +8039,14 @@
       <c r="F218" s="4">
         <v>10000</v>
       </c>
-      <c r="G218" s="5">
-        <v>90.01</v>
+      <c r="G218">
+        <v>90</v>
       </c>
       <c r="H218" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="J218">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="219" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A219" s="5" t="s">
         <v>433</v>
       </c>
@@ -8718,17 +8065,14 @@
       <c r="F219" s="4">
         <v>10000</v>
       </c>
-      <c r="G219" s="10">
-        <v>1270.01</v>
+      <c r="G219">
+        <v>1270</v>
       </c>
       <c r="H219" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="J219">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="220" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A220" s="5" t="s">
         <v>433</v>
       </c>
@@ -8747,17 +8091,14 @@
       <c r="F220" s="4">
         <v>10000</v>
       </c>
-      <c r="G220" s="5">
-        <v>840.01</v>
+      <c r="G220">
+        <v>840</v>
       </c>
       <c r="H220" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="J220">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="221" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A221" s="5" t="s">
         <v>433</v>
       </c>
@@ -8776,17 +8117,14 @@
       <c r="F221" s="4">
         <v>10000</v>
       </c>
-      <c r="G221" s="10">
-        <v>1120.01</v>
+      <c r="G221">
+        <v>1120</v>
       </c>
       <c r="H221" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="J221">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="222" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A222" s="5" t="s">
         <v>433</v>
       </c>
@@ -8805,17 +8143,14 @@
       <c r="F222" s="4">
         <v>10000</v>
       </c>
-      <c r="G222" s="5">
-        <v>430.01</v>
+      <c r="G222">
+        <v>430</v>
       </c>
       <c r="H222" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="J222">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="223" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A223" s="5" t="s">
         <v>433</v>
       </c>
@@ -8834,17 +8169,14 @@
       <c r="F223" s="4">
         <v>10000</v>
       </c>
-      <c r="G223" s="5">
-        <v>960.01</v>
+      <c r="G223">
+        <v>960</v>
       </c>
       <c r="H223" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="J223">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="224" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A224" s="5" t="s">
         <v>433</v>
       </c>
@@ -8863,17 +8195,14 @@
       <c r="F224" s="4">
         <v>10000</v>
       </c>
-      <c r="G224" s="5">
-        <v>10.01</v>
+      <c r="G224">
+        <v>10</v>
       </c>
       <c r="H224" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="J224">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="225" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A225" s="5" t="s">
         <v>433</v>
       </c>
@@ -8892,17 +8221,14 @@
       <c r="F225" s="4">
         <v>10000</v>
       </c>
-      <c r="G225" s="5">
-        <v>140.01</v>
+      <c r="G225">
+        <v>140</v>
       </c>
       <c r="H225" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="J225">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="226" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A226" s="5" t="s">
         <v>433</v>
       </c>
@@ -8921,17 +8247,14 @@
       <c r="F226" s="4">
         <v>10000</v>
       </c>
-      <c r="G226" s="5">
-        <v>80.010000000000005</v>
+      <c r="G226">
+        <v>80</v>
       </c>
       <c r="H226" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="J226">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="227" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A227" s="5" t="s">
         <v>433</v>
       </c>
@@ -8950,17 +8273,14 @@
       <c r="F227" s="4">
         <v>10000</v>
       </c>
-      <c r="G227" s="5">
-        <v>400.01</v>
+      <c r="G227">
+        <v>400</v>
       </c>
       <c r="H227" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="J227">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="228" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A228" s="5" t="s">
         <v>433</v>
       </c>
@@ -8979,17 +8299,14 @@
       <c r="F228" s="4">
         <v>10000</v>
       </c>
-      <c r="G228" s="10">
-        <v>1070.01</v>
+      <c r="G228">
+        <v>1070</v>
       </c>
       <c r="H228" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="J228">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="229" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A229" s="5" t="s">
         <v>433</v>
       </c>
@@ -9008,17 +8325,14 @@
       <c r="F229" s="4">
         <v>10000</v>
       </c>
-      <c r="G229" s="5">
-        <v>2.0099999999999998</v>
+      <c r="G229">
+        <v>2</v>
       </c>
       <c r="H229" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="J229">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="230" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A230" s="5" t="s">
         <v>433</v>
       </c>
@@ -9037,17 +8351,14 @@
       <c r="F230" s="4">
         <v>10000</v>
       </c>
-      <c r="G230" s="5">
-        <v>10.01</v>
+      <c r="G230">
+        <v>10</v>
       </c>
       <c r="H230" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="J230">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="231" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A231" s="5" t="s">
         <v>433</v>
       </c>
@@ -9066,17 +8377,14 @@
       <c r="F231" s="4">
         <v>10000</v>
       </c>
-      <c r="G231" s="5">
-        <v>170.01</v>
+      <c r="G231">
+        <v>170</v>
       </c>
       <c r="H231" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="J231">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="232" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A232" s="5" t="s">
         <v>433</v>
       </c>
@@ -9095,17 +8403,14 @@
       <c r="F232" s="4">
         <v>10000</v>
       </c>
-      <c r="G232" s="10">
-        <v>1100.01</v>
+      <c r="G232">
+        <v>1100</v>
       </c>
       <c r="H232" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="J232">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="233" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A233" s="5" t="s">
         <v>433</v>
       </c>
@@ -9124,17 +8429,14 @@
       <c r="F233" s="4">
         <v>10000</v>
       </c>
-      <c r="G233" s="10">
-        <v>2700.01</v>
+      <c r="G233">
+        <v>2700</v>
       </c>
       <c r="H233" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="J233">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="234" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A234" s="5" t="s">
         <v>433</v>
       </c>
@@ -9153,17 +8455,14 @@
       <c r="F234" s="4">
         <v>10000</v>
       </c>
-      <c r="G234" s="10">
-        <v>2020.01</v>
+      <c r="G234">
+        <v>2020</v>
       </c>
       <c r="H234" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="J234">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="235" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A235" s="5" t="s">
         <v>433</v>
       </c>
@@ -9182,17 +8481,14 @@
       <c r="F235" s="4">
         <v>10000</v>
       </c>
-      <c r="G235" s="5">
-        <v>740.01</v>
+      <c r="G235">
+        <v>740</v>
       </c>
       <c r="H235" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="J235">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="236" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A236" s="5" t="s">
         <v>433</v>
       </c>
@@ -9211,17 +8507,14 @@
       <c r="F236" s="4">
         <v>10000</v>
       </c>
-      <c r="G236" s="5">
-        <v>740.01</v>
+      <c r="G236">
+        <v>740</v>
       </c>
       <c r="H236" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="J236">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="237" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A237" s="5" t="s">
         <v>433</v>
       </c>
@@ -9240,17 +8533,14 @@
       <c r="F237" s="4">
         <v>10000</v>
       </c>
-      <c r="G237" s="5">
-        <v>22.01</v>
+      <c r="G237">
+        <v>22</v>
       </c>
       <c r="H237" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="J237">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="238" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A238" s="5" t="s">
         <v>433</v>
       </c>
@@ -9269,17 +8559,14 @@
       <c r="F238" s="4">
         <v>10000</v>
       </c>
-      <c r="G238" s="5">
-        <v>30.01</v>
+      <c r="G238">
+        <v>30</v>
       </c>
       <c r="H238" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="J238">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="239" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A239" s="5" t="s">
         <v>433</v>
       </c>
@@ -9298,17 +8585,14 @@
       <c r="F239" s="4">
         <v>10000</v>
       </c>
-      <c r="G239" s="5">
-        <v>30.01</v>
+      <c r="G239">
+        <v>30</v>
       </c>
       <c r="H239" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="J239">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="240" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A240" s="5" t="s">
         <v>433</v>
       </c>
@@ -9327,17 +8611,14 @@
       <c r="F240" s="4">
         <v>10000</v>
       </c>
-      <c r="G240" s="5">
-        <v>210.01</v>
+      <c r="G240">
+        <v>210</v>
       </c>
       <c r="H240" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="J240">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="241" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A241" s="5" t="s">
         <v>433</v>
       </c>
@@ -9356,17 +8637,14 @@
       <c r="F241" s="4">
         <v>10000</v>
       </c>
-      <c r="G241" s="5">
-        <v>130.01</v>
+      <c r="G241">
+        <v>130</v>
       </c>
       <c r="H241" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="J241">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="242" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A242" s="5" t="s">
         <v>433</v>
       </c>
@@ -9385,17 +8663,14 @@
       <c r="F242" s="4">
         <v>10000</v>
       </c>
-      <c r="G242" s="10">
-        <v>2590.0100000000002</v>
+      <c r="G242">
+        <v>2590</v>
       </c>
       <c r="H242" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="J242">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="243" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A243" s="5" t="s">
         <v>433</v>
       </c>
@@ -9414,17 +8689,14 @@
       <c r="F243" s="4">
         <v>10000</v>
       </c>
-      <c r="G243" s="10">
-        <v>3030.01</v>
+      <c r="G243">
+        <v>3030</v>
       </c>
       <c r="H243" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="J243">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="244" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A244" s="5" t="s">
         <v>433</v>
       </c>
@@ -9443,17 +8715,14 @@
       <c r="F244" s="4">
         <v>10000</v>
       </c>
-      <c r="G244" s="10">
-        <v>1680.01</v>
+      <c r="G244">
+        <v>1680</v>
       </c>
       <c r="H244" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="J244">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="245" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A245" s="5" t="s">
         <v>433</v>
       </c>
@@ -9472,17 +8741,14 @@
       <c r="F245" s="4">
         <v>10000</v>
       </c>
-      <c r="G245" s="5">
-        <v>610.01</v>
+      <c r="G245">
+        <v>610</v>
       </c>
       <c r="H245" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="J245">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="246" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A246" s="5" t="s">
         <v>433</v>
       </c>
@@ -9501,17 +8767,14 @@
       <c r="F246" s="4">
         <v>10000</v>
       </c>
-      <c r="G246" s="5">
-        <v>720.01</v>
+      <c r="G246">
+        <v>720</v>
       </c>
       <c r="H246" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="J246">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="247" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A247" s="5" t="s">
         <v>433</v>
       </c>
@@ -9530,17 +8793,14 @@
       <c r="F247" s="4">
         <v>10000</v>
       </c>
-      <c r="G247" s="5">
-        <v>130.01</v>
+      <c r="G247">
+        <v>130</v>
       </c>
       <c r="H247" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="J247">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="248" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A248" s="5" t="s">
         <v>433</v>
       </c>
@@ -9559,17 +8819,14 @@
       <c r="F248" s="4">
         <v>10000</v>
       </c>
-      <c r="G248" s="5">
-        <v>100.01</v>
+      <c r="G248">
+        <v>100</v>
       </c>
       <c r="H248" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="J248">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="249" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A249" s="5" t="s">
         <v>433</v>
       </c>
@@ -9588,17 +8845,14 @@
       <c r="F249" s="4">
         <v>10000</v>
       </c>
-      <c r="G249" s="5">
-        <v>250.01</v>
+      <c r="G249">
+        <v>250</v>
       </c>
       <c r="H249" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="J249">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="250" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A250" s="5" t="s">
         <v>433</v>
       </c>
@@ -9617,17 +8871,14 @@
       <c r="F250" s="4">
         <v>10000</v>
       </c>
-      <c r="G250" s="5">
-        <v>420.01</v>
+      <c r="G250">
+        <v>420</v>
       </c>
       <c r="H250" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="J250">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="251" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A251" s="5" t="s">
         <v>433</v>
       </c>
@@ -9646,17 +8897,14 @@
       <c r="F251" s="4">
         <v>10000</v>
       </c>
-      <c r="G251" s="5">
-        <v>300.01</v>
+      <c r="G251">
+        <v>300</v>
       </c>
       <c r="H251" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="J251">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="252" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A252" s="5" t="s">
         <v>433</v>
       </c>
@@ -9675,17 +8923,14 @@
       <c r="F252" s="4">
         <v>10000</v>
       </c>
-      <c r="G252" s="5">
-        <v>300.01</v>
+      <c r="G252">
+        <v>300</v>
       </c>
       <c r="H252" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="J252">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="253" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A253" s="5" t="s">
         <v>433</v>
       </c>
@@ -9704,17 +8949,14 @@
       <c r="F253" s="4">
         <v>10000</v>
       </c>
-      <c r="G253" s="5">
-        <v>940.01</v>
+      <c r="G253">
+        <v>940</v>
       </c>
       <c r="H253" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="J253">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="254" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A254" s="5" t="s">
         <v>433</v>
       </c>
@@ -9733,17 +8975,14 @@
       <c r="F254" s="4">
         <v>10000</v>
       </c>
-      <c r="G254" s="5">
-        <v>550.01</v>
+      <c r="G254">
+        <v>550</v>
       </c>
       <c r="H254" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="J254">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="255" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A255" s="5" t="s">
         <v>433</v>
       </c>
@@ -9762,17 +9001,14 @@
       <c r="F255" s="4">
         <v>10000</v>
       </c>
-      <c r="G255" s="5">
-        <v>680.01</v>
+      <c r="G255">
+        <v>680</v>
       </c>
       <c r="H255" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="J255">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="256" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A256" s="5" t="s">
         <v>433</v>
       </c>
@@ -9791,1401 +9027,885 @@
       <c r="F256" s="4">
         <v>10000</v>
       </c>
-      <c r="G256" s="5">
-        <v>140.01</v>
+      <c r="G256">
+        <v>140</v>
       </c>
       <c r="H256" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="J256">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="257" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="257" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C257" s="6"/>
       <c r="F257" s="4"/>
       <c r="H257" s="9"/>
-      <c r="J257">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="258" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="258" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C258" s="6"/>
       <c r="F258" s="4"/>
       <c r="H258" s="9"/>
-      <c r="J258">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="259" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="259" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C259" s="6"/>
       <c r="F259" s="4"/>
       <c r="H259" s="9"/>
-      <c r="J259">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="260" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="260" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C260" s="6"/>
       <c r="F260" s="4"/>
       <c r="H260" s="9"/>
-      <c r="J260">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="261" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="261" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C261" s="6"/>
       <c r="F261" s="4"/>
       <c r="H261" s="9"/>
-      <c r="J261">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="262" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="262" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C262" s="6"/>
       <c r="F262" s="4"/>
       <c r="H262" s="9"/>
-      <c r="J262">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="263" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="263" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C263" s="6"/>
       <c r="F263" s="4"/>
       <c r="H263" s="9"/>
-      <c r="J263">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="264" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="264" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C264" s="6"/>
       <c r="F264" s="4"/>
       <c r="H264" s="9"/>
-      <c r="J264">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="265" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="265" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C265" s="6"/>
       <c r="F265" s="4"/>
       <c r="H265" s="9"/>
-      <c r="J265">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="266" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="266" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C266" s="6"/>
       <c r="F266" s="4"/>
       <c r="H266" s="9"/>
-      <c r="J266">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="267" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="267" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C267" s="6"/>
       <c r="F267" s="4"/>
       <c r="H267" s="9"/>
-      <c r="J267">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="268" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="268" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C268" s="6"/>
       <c r="F268" s="4"/>
       <c r="H268" s="9"/>
-      <c r="J268">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="269" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="269" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C269" s="6"/>
       <c r="F269" s="4"/>
       <c r="H269" s="9"/>
-      <c r="J269">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="270" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="270" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C270" s="6"/>
       <c r="F270" s="4"/>
       <c r="H270" s="9"/>
-      <c r="J270">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="271" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="271" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C271" s="6"/>
       <c r="F271" s="4"/>
       <c r="H271" s="9"/>
-      <c r="J271">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="272" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="272" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C272" s="6"/>
       <c r="F272" s="4"/>
       <c r="H272" s="9"/>
-      <c r="J272">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="273" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="273" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C273" s="6"/>
       <c r="F273" s="4"/>
       <c r="H273" s="9"/>
-      <c r="J273">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="274" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="274" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C274" s="6"/>
       <c r="F274" s="4"/>
       <c r="H274" s="9"/>
-      <c r="J274">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="275" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="275" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C275" s="6"/>
       <c r="F275" s="4"/>
       <c r="H275" s="9"/>
-      <c r="J275">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="276" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="276" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C276" s="6"/>
       <c r="F276" s="4"/>
       <c r="H276" s="9"/>
-      <c r="J276">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="277" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="277" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C277" s="6"/>
       <c r="F277" s="4"/>
       <c r="H277" s="9"/>
-      <c r="J277">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="278" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="278" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C278" s="6"/>
       <c r="F278" s="4"/>
       <c r="H278" s="9"/>
-      <c r="J278">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="279" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="279" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C279" s="6"/>
       <c r="F279" s="4"/>
       <c r="H279" s="9"/>
-      <c r="J279">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="280" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="280" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C280" s="6"/>
       <c r="F280" s="4"/>
       <c r="H280" s="9"/>
-      <c r="J280">
-        <v>5900</v>
-      </c>
-    </row>
-    <row r="281" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="281" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C281" s="6"/>
       <c r="F281" s="4"/>
       <c r="H281" s="9"/>
-      <c r="J281">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="282" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="282" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C282" s="6"/>
       <c r="F282" s="4"/>
       <c r="H282" s="9"/>
-      <c r="J282">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="283" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="283" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C283" s="6"/>
       <c r="F283" s="4"/>
       <c r="H283" s="9"/>
-      <c r="J283">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="284" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="284" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C284" s="6"/>
       <c r="F284" s="4"/>
       <c r="H284" s="9"/>
-      <c r="J284">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="285" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="285" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C285" s="6"/>
       <c r="F285" s="4"/>
       <c r="H285" s="9"/>
-      <c r="J285">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="286" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="286" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C286" s="6"/>
       <c r="F286" s="4"/>
       <c r="H286" s="9"/>
-      <c r="J286">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="287" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="287" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C287" s="6"/>
       <c r="F287" s="4"/>
       <c r="H287" s="9"/>
-      <c r="J287">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="288" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="288" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C288" s="6"/>
       <c r="F288" s="4"/>
       <c r="H288" s="9"/>
-      <c r="J288">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="289" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="289" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C289" s="6"/>
       <c r="F289" s="4"/>
       <c r="H289" s="9"/>
-      <c r="J289">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="290" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="290" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C290" s="6"/>
       <c r="F290" s="4"/>
       <c r="H290" s="9"/>
-      <c r="J290">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="291" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="291" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C291" s="6"/>
       <c r="F291" s="4"/>
       <c r="H291" s="9"/>
-      <c r="J291">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="292" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="292" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C292" s="6"/>
       <c r="F292" s="4"/>
       <c r="H292" s="9"/>
-      <c r="J292">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="293" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="293" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C293" s="6"/>
       <c r="F293" s="4"/>
       <c r="H293" s="9"/>
-      <c r="J293">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="294" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="294" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C294" s="6"/>
       <c r="F294" s="4"/>
       <c r="H294" s="9"/>
-      <c r="J294">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="295" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="295" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C295" s="6"/>
       <c r="F295" s="4"/>
       <c r="H295" s="9"/>
-      <c r="J295">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="296" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="296" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C296" s="6"/>
       <c r="F296" s="4"/>
       <c r="H296" s="9"/>
-      <c r="J296">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="297" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="297" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C297" s="6"/>
       <c r="F297" s="4"/>
       <c r="H297" s="9"/>
-      <c r="J297">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="298" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="298" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C298" s="6"/>
       <c r="F298" s="4"/>
       <c r="H298" s="9"/>
-      <c r="J298">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="299" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="299" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C299" s="6"/>
       <c r="F299" s="4"/>
       <c r="H299" s="9"/>
-      <c r="J299">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="300" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="300" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C300" s="6"/>
       <c r="F300" s="4"/>
       <c r="H300" s="9"/>
-      <c r="J300">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="301" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="301" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C301" s="6"/>
       <c r="F301" s="4"/>
       <c r="H301" s="9"/>
-      <c r="J301">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="302" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="302" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C302" s="6"/>
       <c r="F302" s="4"/>
       <c r="H302" s="9"/>
-      <c r="J302">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="303" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="303" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C303" s="6"/>
       <c r="F303" s="4"/>
       <c r="H303" s="9"/>
-      <c r="J303">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="304" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="304" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C304" s="6"/>
       <c r="F304" s="4"/>
       <c r="H304" s="9"/>
-      <c r="J304">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="305" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="305" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C305" s="6"/>
       <c r="F305" s="4"/>
       <c r="H305" s="9"/>
-      <c r="J305">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="306" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="306" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C306" s="6"/>
       <c r="F306" s="4"/>
       <c r="H306" s="9"/>
-      <c r="J306">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="307" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="307" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C307" s="6"/>
       <c r="F307" s="4"/>
       <c r="H307" s="9"/>
-      <c r="J307">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="308" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="308" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C308" s="6"/>
       <c r="F308" s="4"/>
       <c r="H308" s="9"/>
-      <c r="J308">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="309" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="309" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C309" s="6"/>
       <c r="F309" s="4"/>
       <c r="H309" s="9"/>
-      <c r="J309">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="310" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="310" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C310" s="6"/>
       <c r="F310" s="4"/>
       <c r="H310" s="9"/>
-      <c r="J310">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="311" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="311" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C311" s="6"/>
       <c r="F311" s="4"/>
       <c r="H311" s="9"/>
-      <c r="J311">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="312" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="312" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C312" s="6"/>
       <c r="F312" s="4"/>
       <c r="H312" s="9"/>
-      <c r="J312">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="313" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="313" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C313" s="6"/>
       <c r="F313" s="4"/>
       <c r="H313" s="9"/>
-      <c r="J313">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="314" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="314" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C314" s="6"/>
       <c r="F314" s="4"/>
       <c r="H314" s="9"/>
-      <c r="J314">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="315" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="315" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C315" s="6"/>
       <c r="F315" s="4"/>
       <c r="H315" s="9"/>
-      <c r="J315">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="316" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="316" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C316" s="6"/>
       <c r="F316" s="4"/>
       <c r="H316" s="9"/>
-      <c r="J316">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="317" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="317" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C317" s="6"/>
       <c r="F317" s="4"/>
       <c r="H317" s="9"/>
-      <c r="J317">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="318" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="318" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C318" s="6"/>
       <c r="F318" s="4"/>
       <c r="H318" s="9"/>
-      <c r="J318">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="319" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="319" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C319" s="6"/>
       <c r="F319" s="4"/>
       <c r="H319" s="9"/>
-      <c r="J319">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="320" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="320" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C320" s="6"/>
       <c r="F320" s="4"/>
       <c r="H320" s="9"/>
-      <c r="J320">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="321" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="321" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C321" s="6"/>
       <c r="F321" s="4"/>
       <c r="H321" s="9"/>
-      <c r="J321">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="322" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="322" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C322" s="6"/>
       <c r="F322" s="4"/>
       <c r="H322" s="9"/>
-      <c r="J322">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="323" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="323" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C323" s="6"/>
       <c r="F323" s="4"/>
       <c r="H323" s="9"/>
-      <c r="J323">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="324" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="324" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C324" s="6"/>
       <c r="F324" s="4"/>
       <c r="H324" s="9"/>
-      <c r="J324">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="325" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="325" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C325" s="6"/>
       <c r="F325" s="4"/>
       <c r="H325" s="9"/>
-      <c r="J325">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="326" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="326" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C326" s="6"/>
       <c r="F326" s="4"/>
       <c r="H326" s="9"/>
-      <c r="J326">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="327" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="327" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C327" s="6"/>
       <c r="F327" s="4"/>
       <c r="H327" s="9"/>
-      <c r="J327">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="328" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="328" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C328" s="6"/>
       <c r="F328" s="4"/>
       <c r="H328" s="9"/>
-      <c r="J328">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="329" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="329" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C329" s="6"/>
       <c r="F329" s="4"/>
       <c r="H329" s="9"/>
-      <c r="J329">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="330" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="330" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C330" s="6"/>
       <c r="F330" s="4"/>
       <c r="H330" s="9"/>
-      <c r="J330">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="331" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="331" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C331" s="6"/>
       <c r="F331" s="4"/>
       <c r="H331" s="9"/>
-      <c r="J331">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="332" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="332" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C332" s="6"/>
       <c r="F332" s="4"/>
       <c r="H332" s="9"/>
-      <c r="J332">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="333" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="333" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C333" s="6"/>
       <c r="F333" s="4"/>
       <c r="H333" s="9"/>
-      <c r="J333">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="334" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="334" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C334" s="6"/>
       <c r="F334" s="4"/>
       <c r="H334" s="9"/>
-      <c r="J334">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="335" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="335" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C335" s="6"/>
       <c r="F335" s="4"/>
       <c r="H335" s="9"/>
-      <c r="J335">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="336" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="336" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C336" s="6"/>
       <c r="F336" s="4"/>
       <c r="H336" s="9"/>
-      <c r="J336">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="337" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="337" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C337" s="6"/>
       <c r="F337" s="4"/>
       <c r="H337" s="9"/>
-      <c r="J337">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="338" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="338" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C338" s="6"/>
       <c r="F338" s="4"/>
       <c r="H338" s="9"/>
-      <c r="J338">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="339" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="339" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C339" s="6"/>
       <c r="F339" s="4"/>
       <c r="H339" s="9"/>
-      <c r="J339">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="340" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="340" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C340" s="6"/>
       <c r="F340" s="4"/>
       <c r="H340" s="9"/>
-      <c r="J340">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="341" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="341" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C341" s="6"/>
       <c r="F341" s="4"/>
       <c r="H341" s="9"/>
-      <c r="J341">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="342" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="342" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C342" s="6"/>
       <c r="F342" s="4"/>
       <c r="H342" s="9"/>
-      <c r="J342">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="343" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="343" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C343" s="6"/>
       <c r="F343" s="4"/>
       <c r="H343" s="9"/>
-      <c r="J343">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="344" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="344" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C344" s="6"/>
       <c r="F344" s="4"/>
       <c r="H344" s="9"/>
-      <c r="J344">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="345" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="345" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C345" s="6"/>
       <c r="F345" s="4"/>
       <c r="H345" s="9"/>
-      <c r="J345">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="346" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="346" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C346" s="6"/>
       <c r="F346" s="4"/>
       <c r="H346" s="9"/>
-      <c r="J346">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="347" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="347" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C347" s="6"/>
       <c r="F347" s="4"/>
       <c r="H347" s="9"/>
-      <c r="J347">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="348" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="348" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C348" s="6"/>
       <c r="F348" s="4"/>
       <c r="H348" s="9"/>
-      <c r="J348">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="349" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="349" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C349" s="6"/>
       <c r="F349" s="4"/>
       <c r="H349" s="9"/>
-      <c r="J349">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="350" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="350" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C350" s="6"/>
       <c r="F350" s="4"/>
       <c r="H350" s="9"/>
-      <c r="J350">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="351" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="351" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C351" s="6"/>
       <c r="F351" s="4"/>
       <c r="H351" s="9"/>
-      <c r="J351">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="352" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="352" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C352" s="6"/>
       <c r="F352" s="4"/>
       <c r="H352" s="9"/>
-      <c r="J352">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="353" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="353" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C353" s="6"/>
       <c r="F353" s="4"/>
       <c r="H353" s="9"/>
-      <c r="J353">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="354" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="354" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C354" s="6"/>
       <c r="F354" s="4"/>
       <c r="H354" s="9"/>
-      <c r="J354">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="355" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="355" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C355" s="6"/>
       <c r="F355" s="4"/>
       <c r="H355" s="9"/>
-      <c r="J355">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="356" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="356" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C356" s="6"/>
       <c r="F356" s="4"/>
       <c r="H356" s="9"/>
-      <c r="J356">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="357" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="357" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C357" s="6"/>
       <c r="F357" s="4"/>
       <c r="H357" s="9"/>
-      <c r="J357">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="358" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="358" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C358" s="6"/>
       <c r="F358" s="4"/>
       <c r="H358" s="9"/>
-      <c r="J358">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="359" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="359" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C359" s="6"/>
       <c r="F359" s="4"/>
       <c r="H359" s="9"/>
-      <c r="J359">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="360" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="360" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C360" s="6"/>
       <c r="F360" s="4"/>
       <c r="H360" s="9"/>
-      <c r="J360">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="361" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="361" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C361" s="6"/>
       <c r="F361" s="4"/>
       <c r="H361" s="9"/>
-      <c r="J361">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="362" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="362" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C362" s="6"/>
       <c r="F362" s="4"/>
       <c r="H362" s="9"/>
-      <c r="J362">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="363" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="363" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C363" s="6"/>
       <c r="F363" s="4"/>
       <c r="H363" s="9"/>
-      <c r="J363">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="364" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="364" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C364" s="6"/>
       <c r="F364" s="4"/>
       <c r="H364" s="9"/>
-      <c r="J364">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="365" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="365" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C365" s="6"/>
       <c r="F365" s="4"/>
       <c r="H365" s="9"/>
-      <c r="J365">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="366" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="366" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C366" s="6"/>
       <c r="F366" s="4"/>
       <c r="H366" s="9"/>
-      <c r="J366">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="367" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="367" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C367" s="6"/>
       <c r="F367" s="4"/>
       <c r="H367" s="9"/>
-      <c r="J367">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="368" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="368" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C368" s="6"/>
       <c r="F368" s="4"/>
       <c r="H368" s="9"/>
-      <c r="J368">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="369" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="369" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C369" s="6"/>
       <c r="F369" s="4"/>
       <c r="H369" s="9"/>
-      <c r="J369">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="370" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="370" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C370" s="6"/>
       <c r="F370" s="4"/>
       <c r="H370" s="9"/>
-      <c r="J370">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="371" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="371" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C371" s="6"/>
       <c r="F371" s="4"/>
       <c r="H371" s="9"/>
-      <c r="J371">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="372" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="372" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C372" s="6"/>
       <c r="F372" s="4"/>
       <c r="H372" s="9"/>
-      <c r="J372">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="373" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="373" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C373" s="6"/>
       <c r="F373" s="4"/>
       <c r="H373" s="9"/>
-      <c r="J373">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="374" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="374" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C374" s="6"/>
       <c r="F374" s="4"/>
       <c r="H374" s="9"/>
-      <c r="J374">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="375" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="375" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C375" s="6"/>
       <c r="F375" s="4"/>
       <c r="H375" s="9"/>
-      <c r="J375">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="376" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="376" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C376" s="6"/>
       <c r="F376" s="4"/>
       <c r="H376" s="9"/>
-      <c r="J376">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="377" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="377" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C377" s="6"/>
       <c r="F377" s="4"/>
       <c r="H377" s="9"/>
-      <c r="J377">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="378" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="378" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C378" s="6"/>
       <c r="F378" s="4"/>
       <c r="H378" s="9"/>
-      <c r="J378">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="379" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="379" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C379" s="6"/>
       <c r="F379" s="4"/>
       <c r="H379" s="9"/>
-      <c r="J379">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="380" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="380" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C380" s="6"/>
       <c r="F380" s="4"/>
       <c r="H380" s="9"/>
-      <c r="J380">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="381" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="381" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C381" s="6"/>
       <c r="F381" s="4"/>
       <c r="H381" s="9"/>
-      <c r="J381">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="382" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="382" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C382" s="6"/>
       <c r="F382" s="4"/>
       <c r="H382" s="9"/>
-      <c r="J382">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="383" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="383" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C383" s="6"/>
       <c r="F383" s="4"/>
       <c r="H383" s="9"/>
-      <c r="J383">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="384" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="384" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C384" s="6"/>
       <c r="F384" s="4"/>
       <c r="H384" s="9"/>
-      <c r="J384">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="385" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="385" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C385" s="6"/>
       <c r="F385" s="4"/>
       <c r="H385" s="9"/>
-      <c r="J385">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="386" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="386" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C386" s="6"/>
       <c r="F386" s="4"/>
       <c r="H386" s="9"/>
-      <c r="J386">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="387" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="387" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C387" s="6"/>
       <c r="F387" s="4"/>
       <c r="H387" s="9"/>
-      <c r="J387">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="388" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="388" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C388" s="6"/>
       <c r="F388" s="4"/>
       <c r="H388" s="9"/>
-      <c r="J388">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="389" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="389" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C389" s="6"/>
       <c r="F389" s="4"/>
       <c r="H389" s="9"/>
-      <c r="J389">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="390" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="390" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C390" s="6"/>
       <c r="F390" s="4"/>
       <c r="H390" s="9"/>
-      <c r="J390">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="391" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="391" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C391" s="6"/>
       <c r="F391" s="4"/>
       <c r="H391" s="9"/>
-      <c r="J391">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="392" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="392" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C392" s="6"/>
       <c r="F392" s="4"/>
       <c r="H392" s="9"/>
-      <c r="J392">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="393" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="393" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C393" s="6"/>
       <c r="F393" s="4"/>
       <c r="H393" s="9"/>
-      <c r="J393">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="394" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="394" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C394" s="6"/>
       <c r="F394" s="4"/>
       <c r="H394" s="9"/>
-      <c r="J394">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="395" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="395" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C395" s="6"/>
       <c r="F395" s="4"/>
       <c r="H395" s="9"/>
-      <c r="J395">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="396" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="396" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C396" s="6"/>
       <c r="F396" s="4"/>
       <c r="H396" s="9"/>
-      <c r="J396">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="397" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="397" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C397" s="6"/>
       <c r="F397" s="4"/>
       <c r="H397" s="9"/>
-      <c r="J397">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="398" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="398" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C398" s="6"/>
       <c r="F398" s="4"/>
       <c r="H398" s="9"/>
-      <c r="J398">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="399" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="399" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C399" s="6"/>
       <c r="F399" s="4"/>
       <c r="H399" s="9"/>
-      <c r="J399">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="400" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="400" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C400" s="6"/>
       <c r="F400" s="4"/>
       <c r="H400" s="9"/>
-      <c r="J400">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="401" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="401" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C401" s="6"/>
       <c r="F401" s="4"/>
       <c r="H401" s="9"/>
-      <c r="J401">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="402" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="402" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C402" s="6"/>
       <c r="F402" s="4"/>
       <c r="H402" s="9"/>
-      <c r="J402">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="403" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="403" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C403" s="6"/>
       <c r="F403" s="4"/>
       <c r="H403" s="9"/>
-      <c r="J403">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="404" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="404" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C404" s="6"/>
       <c r="F404" s="4"/>
       <c r="H404" s="9"/>
-      <c r="J404">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="405" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="405" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C405" s="6"/>
       <c r="F405" s="4"/>
       <c r="H405" s="9"/>
-      <c r="J405">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="406" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="406" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C406" s="6"/>
       <c r="F406" s="4"/>
       <c r="H406" s="9"/>
-      <c r="J406">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="407" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="407" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C407" s="6"/>
       <c r="F407" s="4"/>
       <c r="H407" s="9"/>
-      <c r="J407">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="408" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="408" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C408" s="6"/>
       <c r="F408" s="4"/>
       <c r="H408" s="9"/>
-      <c r="J408">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="409" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="409" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C409" s="6"/>
       <c r="F409" s="4"/>
       <c r="H409" s="9"/>
-      <c r="J409">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="410" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="410" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C410" s="6"/>
       <c r="F410" s="4"/>
       <c r="H410" s="9"/>
-      <c r="J410">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="411" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="411" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C411" s="6"/>
       <c r="F411" s="4"/>
       <c r="H411" s="9"/>
-      <c r="J411">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="412" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="412" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C412" s="6"/>
       <c r="F412" s="4"/>
       <c r="H412" s="9"/>
-      <c r="J412">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="413" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="413" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C413" s="6"/>
       <c r="F413" s="4"/>
       <c r="H413" s="9"/>
-      <c r="J413">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="414" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="414" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C414" s="6"/>
       <c r="F414" s="4"/>
       <c r="H414" s="9"/>
-      <c r="J414">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="415" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="415" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C415" s="6"/>
       <c r="F415" s="4"/>
       <c r="H415" s="9"/>
-      <c r="J415">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="416" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="416" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C416" s="6"/>
       <c r="F416" s="4"/>
       <c r="H416" s="9"/>
-      <c r="J416">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="417" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="417" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C417" s="6"/>
       <c r="F417" s="4"/>
       <c r="H417" s="9"/>
-      <c r="J417">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="418" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="418" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C418" s="6"/>
       <c r="F418" s="4"/>
       <c r="H418" s="9"/>
-      <c r="J418">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="419" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="419" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C419" s="6"/>
       <c r="F419" s="4"/>
       <c r="H419" s="9"/>
-      <c r="J419">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="420" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="420" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C420" s="6"/>
       <c r="F420" s="4"/>
       <c r="H420" s="9"/>
-      <c r="J420">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="421" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="421" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C421" s="6"/>
       <c r="F421" s="4"/>
       <c r="H421" s="9"/>
-      <c r="J421">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="422" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="422" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C422" s="6"/>
       <c r="F422" s="4"/>
       <c r="H422" s="9"/>
-      <c r="J422">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="423" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="423" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C423" s="6"/>
       <c r="F423" s="4"/>
       <c r="H423" s="9"/>
-      <c r="J423">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="424" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="424" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C424" s="6"/>
       <c r="F424" s="4"/>
       <c r="H424" s="9"/>
-      <c r="J424">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="425" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="425" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C425" s="6"/>
       <c r="F425" s="4"/>
       <c r="H425" s="9"/>
-      <c r="J425">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="426" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="426" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C426" s="6"/>
       <c r="F426" s="4"/>
       <c r="H426" s="9"/>
-      <c r="J426">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="427" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="427" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C427" s="6"/>
       <c r="F427" s="4"/>
       <c r="H427" s="9"/>
-      <c r="J427">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="428" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="428" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C428" s="6"/>
       <c r="H428" s="9"/>
     </row>
-    <row r="429" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="429" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C429" s="6"/>
       <c r="H429" s="9"/>
     </row>
-    <row r="430" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="430" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C430" s="6"/>
       <c r="H430" s="9"/>
     </row>
-    <row r="431" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="431" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C431" s="6"/>
       <c r="H431" s="9"/>
     </row>
-    <row r="432" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="432" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C432" s="6"/>
       <c r="H432" s="9"/>
     </row>

--- a/downloads/mainpharmacyinventory.xlsx
+++ b/downloads/mainpharmacyinventory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malachi.egbugha\Documents\project\hmsbackend\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED17F8BF-D8A4-498E-9CC1-612D470B2F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85726E67-CE40-4BF0-94F6-FD7148EE9A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E597F3E0-C64E-419C-BCB0-AD8BE7755CA4}"/>
   </bookViews>
